--- a/news_data/2015_07.xlsx
+++ b/news_data/2015_07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,126 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도-관광공사, 말레이시아 여행업계 초청 팸투어</t>
+  </si>
+  <si>
+    <t>제주도 하반기 관광진흥기금 304억 지원</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 메르스 특별융자 대상자 확정</t>
+  </si>
+  <si>
+    <t>제주도, 中 골프관광객 유치에 시동</t>
+  </si>
+  <si>
+    <t>[제주창조경제혁신센터를 가다]代를 이은 녹차사랑…서경배 회장 "제주도를 녹...</t>
+  </si>
+  <si>
+    <t>제주도-관광공사, 베트남 국영방송 활용 '청정제주' 홍보</t>
+  </si>
+  <si>
+    <t>제주도, 세계지속가능한 관광위원회 회원 가입</t>
+  </si>
+  <si>
+    <t>제주도-중국국제여행사 제주관광 활성화 협력</t>
+  </si>
+  <si>
+    <t>제주도-관광협, 대구 기업체 대상 제주관광 홍보</t>
+  </si>
+  <si>
+    <t>제주도 방문 관광객 700만명 사상 최단기간 돌파</t>
+  </si>
+  <si>
+    <t>제주도내 해변·주요관광지 '암행어사'뜬다</t>
+  </si>
+  <si>
+    <t>&lt;부고&gt; 정윤종(제주도관광협회 실장)씨 별세</t>
+  </si>
+  <si>
+    <t>제주도-관광공사, 메르스 침체 관광시장 회복 '동남아 공략'</t>
+  </si>
+  <si>
+    <t>제주도 "메르스 위기, 관광업계 체질개선기회로"</t>
+  </si>
+  <si>
+    <t>제주도, 지자체 최초로 양적 관광을 생태관광으로 전환하나</t>
+  </si>
+  <si>
+    <t>위기의 제주도 '썰렁'… 메르스 여파로 줄어든 中 관광객</t>
+  </si>
+  <si>
+    <t>소녀시대 엑소 샤이니, 일본 관광객에 "제주도 놀러오세요"</t>
+  </si>
+  <si>
+    <t>[부고] 정윤종(제주도관광협회 실장)씨 별세</t>
+  </si>
+  <si>
+    <t>제주관광공사, 전출금 의혹 해명 "제주도에 결과 보고"</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 유치 서울지역 홍보 캠페인</t>
+  </si>
+  <si>
+    <t>제주도, 의료관광 로드맵도 없이 외국영리병원에만 '목매'</t>
+  </si>
+  <si>
+    <t>제주도-관광공, 유관기관과 '중화권 관광객 팸투어' 진행</t>
+  </si>
+  <si>
+    <t>템퍼, 제주도에서 여름 이벤트 진행…도민·관광객 위한 혜택도</t>
+  </si>
+  <si>
+    <t>박원순-원희룡, 제주도 관광 홍보위해 '한마음'…오늘 명동서</t>
+  </si>
+  <si>
+    <t>제주도 릴레이식으로 해외관광객 유치</t>
+  </si>
+  <si>
+    <t>제주도 국내외 관광시장 전방위 마케팅 돌입</t>
+  </si>
+  <si>
+    <t>제주도 관광진흥조례 야영장 등록기준 강화</t>
+  </si>
+  <si>
+    <t>“제주도로 관광 오세요”</t>
+  </si>
+  <si>
+    <t>제주도·골프업계, 中 골프관광객 유치활동</t>
+  </si>
+  <si>
+    <t>제주도·BBB '언어불편 없는 관광제주' 캠페인</t>
+  </si>
+  <si>
+    <t>관세청, 제주도 신규 면세사업자 제주관광공사 선정</t>
+  </si>
+  <si>
+    <t>제주도 16일∼8월12일 문화관광해설사 양성교육</t>
+  </si>
+  <si>
+    <t>제주도, 명동서 메르스 극복 관광 홍보행사</t>
+  </si>
+  <si>
+    <t>허수경 "관광객이 제주도 집 벨 눌러…이효리 이해"</t>
+  </si>
+  <si>
+    <t>제주도관광협회 황금버스, 사업철회 등 방향 바꿔야</t>
+  </si>
+  <si>
+    <t>'해투' 허수경 "제주도 거주, 관광객 고충 이효리 마음 이해돼"</t>
+  </si>
+  <si>
+    <t>제주도-관광공사, 베트남 예능 방송 활용 '청정 제주' 홍보</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 6월 베스트관광인에 김상노씨 선정</t>
+  </si>
+  <si>
+    <t>제주도 방문자수 1위 성산일출봉앞 '제주성산골든튤립호텔', 관광호텔 최적입...</t>
+  </si>
+  <si>
+    <t>올 여름휴가, 제주도 특별한 밤...야간관광 추천코스는?</t>
+  </si>
+  <si>
     <t>제주도, 문화관광해설서 신규양성 교육</t>
   </si>
   <si>
@@ -49,37 +169,109 @@
     <t>허수경, "이효리 이해, 제주도 집 찾는 관광객 신경 쓰여" (해피투게더)</t>
   </si>
   <si>
-    <t>[부고] 정윤종(제주도관광협회 실장)씨 별세</t>
-  </si>
-  <si>
-    <t>제주도, 문화관광해설서 신규양성 교육 &lt; 문화일반 &lt; 문화 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 09:44 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주, 시간당 20mm 내외 강한 비…기온 큰 폭으로 ‘뚝↓’ [10월 4일] 제주도지사·도의장·도교육감·시장 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 문화관광해설서 신규양성 교육 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 문화일반 제주도, 문화관광해설서 신규양성 교육 기자명 이승록 기자					(leerevol@naver.com) 입력 2015.07.10 11:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도가 문환광광해설사 신규 양성교육을 실시한다.  제주도는 오는 16일부터 8월12까지 약 1개월간 총 120시간에 걸쳐 제주관광대학교에서  2016년에 새롭게 활동하게 될 문화관광해설사 신규양성교육을  실시할 계획이라고 10일 밝혔다.문화관광해설사 신규양성 교육은  문화체육관광부 신규양성 인증프로그램에 따라 문화관광해설사로서 갖춰야 할 기본소양교육과  제주의 문화와 역사․해설안내 기법은 물론 관광객 유형별 특성 및 고객서비스 접근 전략 등에 대하여 진행된다.특히 제주의 문화와 역사, 자연을 관광객들이 공감·감흥할 수 있도록 다양하게 스토리텔링화해 전달함으로써 제주관광의 가치와 매력을 높이고, 관광객들로부터 제주관광에 대한 만족도 제고 및 재방문률을 높이는데 문화관광해설사들이 기여할 수 있도록 역량 있는 문화관광 해설인력으로 육성시켜 나가게 된다.신규양성 교육과정이 끝나면 교육생들은 교육내용에 대한 이론평가와 시나리오 작성 및 관광지 현장에서 해설시연테스트를 모두 통과해야 현장실무수습대상으로 선발될 수 있으며, 현장실무수습생들은 3개월간의 수습과정을 마쳐야 2016년 현장배치 되어 활동할 수 있는 자격을 부여받을 수 있다.제주도는 지난 6월17일부터 25일까지 신규양성교육 대상자를 모집해 최종 43명의 교육대상자를 선발했고, 현재 29개소 공영관광지에서 120명의 문화관광해설사들이 활동중이다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 4 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 5 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래처럼 일 못하는 고문관 새끼들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 전문가인척 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 8 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 9 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 10 현병찬교장선생님 축하드립니다 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 문화관광해설사 신규 양성교육 실시 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 문화관광해설사 신규 양성교육 실시 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 문화 제주도, 문화관광해설사 신규 양성교육 실시 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.07.10 15:34 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 16일부터 8월12까지 총 120시간에 걸쳐 문화관광해설사 신규 양성교육을 실시한다고 전했다. 제주관광대학교에서 열리는 이번 교육은 문화체육관광부 인증프로그램에 따라 추진되는 것으로, 2016년에 새롭게 활동하게 될 문화관광해설사를 양성하는 것을 목적으로 한다. 문화관광해설사로서 갖춰야 할 기본소양교육과 제주의 문화와 역사․해설안내 기법은 물론 관광객 유형별 특성 및 고객서비스 접근 전략 등에 대해 교육한다. 교육생들은 교육과정이 끝난후 이론평가와 시나리오 작성 및 관광지 현장에서 해설시연테스트를 모두 통과해야 현장실무 수습대상으로 선발될 수 있다. &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>'해투3' 허수경, “제주도 집 관광객 벨 눌러…"이효리 고충에 大 공감 로고 연예 지면보기 구독신청 기사제보 로그인 회원가입 | 유튜브 페이스북 전체보기 연예일반방송영화 검색 오피니언사설기자칼럼전문가칼럼기고 사회사회일반사건사고복지·노동보건의료환경반려동물 정치정치일반대통령·중앙행정대구·경북 행정대구·경북의회국방·북한 경제경제일반증시·금융부동산자동차취업·창업IT·모바일 스포츠스포츠일반야구축구농구·배구·핸드볼골프 문화문화일반공연·전시책운세기타 건강건강일반병원소식질환 영상영상뉴스송국건의혼술이지핏부동산공부방 위클리포유위클리포유일반여행/레저위클리영화패션·뷰티푸드칼럼 에듀포유대학·입시중·고등초등·유아대구경북교육청에듀포유일반 포토 포토뉴스 지역뉴스 경북동부 경북중부 경북북부 대구근교 대구 교육/과학교육과학 국제국제일반미국일본중국유럽 동정동정일반결혼부고알림인사 기획/특집기획/특집 연재 연재 시민기자시민기자 연예연예일반방송영화 웹툰웹툰플레이툰 독자투고 독자투고 기사제보 공지사항 x 검색버튼 '해투3' 허수경, “제주도 집 관광객 벨 눌러…"이효리 고충에 大 공감 인터넷뉴스팀 | 입력 2015-07-01 00:00 |  수정 2015-07-01 인쇄 글자작게 글자크게 카카오톡 페이스북 트위터 카카오스토리 전체 네이버밴드 네이버블로그 사진제공:KBS2 '해피투게더3' '해피투게더3'제주살이 대표 연예인’ 허수경이 ‘소길댁’ 이효리의 고충에 폭풍 공감했다. 오는 2일 방송되는 KBS 2TV ′해피투게더3′(이하 ‘해투’)는 7월 여름 스페셜 야간매점 1탄인 ‘전설의 MC’ 매점으로 꾸려진다. 7월 한 달 동안 방영될 여름 스페셜은 ‘쿡방의 원조’ 야간매점의 확장판으로 다양한 게스트들을 초대해, 음식과 관련된 에피소드들을 허심탄회하게 주고 받는 의미 있는 시간으로 마련되며, 이날 방송에서는 ‘전설의 MC 군단’ 이덕화, 이홍렬, 박준규, 허수경, 광희와 ‘스페셜 주방장’ 이연복이 출연해 찰진 입담과 감칠맛으로 목요일 밤을 수놓을 예정이다. 특히 이날은 대한민국 대표 ‘제주살이 연예인’ 허수경이 제주도 생활의 고충과 즐거움을 허심탄회하게 털어놓아 관심을 모았다. 그는 최근 불거진 ‘소길댁’ 이효리의 이사설에 대해 자신의 생각을 드러냈다. 이효리는 가수 이상순과 결혼 후 제주도 애월읍 소길리에 거주하며 ‘소길댁’이라는 애칭을 얻을 정도로 큰 화제를 모았다. 그러나 최근 ‘이효리가 극심한 사생활 침해를 못 견디고 소길리를 떠나 다른 지역으로 이사를 준비하고 있다’는 보도와 함께 이효리의 제주 생활이 또 한번 뜨거운 화제를 불러 모은 바 있다. 이에 허수경은 “이효리의 마음이 매우 이해가 간다. 나만해도 어려움이 있는데 효리씨는 한 10배쯤 더 할 것”이라고 입을 연 뒤, “나는 아침에 세수도 안하고 효자방석 깔고 앉아서 마당 풀을 뽑곤 한다. 그런데 자꾸 들여다봐서 신경이 쓰이더라. 어쩔 수 없이 담을 쳤다. 심지어 어떤 분들은 벨을 누르며 저희 집 게스트 룸에서 묵게 해달라고 부탁하기도 한다”며 나름의 고충을 털어놔 눈길을 끌었다. 이날 허수경은 ‘제주살이’의 힘든 점뿐만 아니라 즐거움 등 제주 라이프에 관한 모든 것을 허심탄회하게 털어놓았다는 후문. 이에 허수경의 진솔한 이야기가 펼쳐질 ‘해투’ 7월 여름 스페셜 야간매점 1탄 ‘전설의 MC’ 매점에 기대감이 증폭된다. KBS 2TV ‘해피투게더3’ 7월 여름 스페셜 야간매점1탄 ‘전설의 MC’ 매점은 오는 2일, 목요일 밤 11시 10분에 방송된다.인터넷뉴스팀 ynnews@yeongnam.com 영남일보(www.yeongnam.com), 무단전재 및 수집, 재배포금지 연예인기뉴스 10월3일(월) TV 편성표손예진, 현빈 영화 '공조2' 관람 데이트 포착 영남일보TV 라이브리댓글 작성을 위해 JavaScript를 활성화해주세요. 기획 더보기 [대구의 미래 청년기업 .9] 스포츠 기업 '디에스그룹'…은퇴 체육인 새로운 진로 개척 '인생 2모작' 돕는 사회적 기업 "정부, 해외 에너지 자원에 대한 직접 투자 확대하고 석유와 가스의 저장소의 용량도 늘려야" [인구절벽시대 우리 지역 우리가 지키자 .10] 옛 가야대 고령캠퍼스 현주소…대학촌 폐업·공실 사태로 슬럼화 시민사회는 지금 더보기 "녹조 창궐 영주댐, 환경부 불법 담수 그만" 대구 참여연대 "들러리 대구시의회 규탄" Remember! 대구 경북 디아스포라 더보기 대구 경북 아픈역사의 현장 더보기 영남일보TV 더보기 [영상 뉴스]'사문진 100대 피아노',3년 만에 열려 대성황 많이 본 뉴스 최신 주간 월간 대구 동구 율암동 섬유공장서 화재 1 민선 8기 출범 100일 '공공기관 혁신·군부대 이전' 대구시 '바쁜 10월' 예고 2 거리두기 해제 후 대구 도심에서 열린 퀴어 축제…인근선 맞불 집회도 3 제1035회 로또 1등 배출점 대구, 수성구 1곳... 2등 배출점 대구 6, 경북 6곳 4 노후 이미지 벗는 성서산단 "젊은이 모이는 곳으로" 5 [포토뉴스] 형형색색의 코스모스가 핀 대구 금호꽃섬(하중도) 6 또 수성구에서…투견 훈련 의심 시설, 수성구 나오는 이유는? 7 [고물가 천태만상] (1) 손님들 '고물가' 애환에 가격 내린 따뜻한 식당 8 개천절 연휴 지나고 비 소식…기온 '뚝' 환절기 돌입 9 대구 동구 율암동 섬유공장 잔불 정리 중(2보) 10 날개꺾인 대구국제공항...일본.대만 노선 없어 시민들 김해로 1 대구시, 통합신공항 접근성 개선 위한 중앙고속도로 확장 및 대구경북선 철도 건설 등 건의 2 대구 동구 율암동 섬유공장서 화재 3 홍준표 대구시장, 8개 구·군 단체장과 첫 간담회…어떤 이야기 오갔나 4 SK실트론, 향후 5년간 구미에 2조3천억 투자…반도체 특화단지 유치 성큼 5 이노룰스 ,공모주 청약 마지막날 11시 현재 경쟁률? 6 민선 8기 출범 100일 '공공기관 혁신·군부대 이전' 대구시 '바쁜 10월' 예고 7 돌나라 한농강재, 지역 어려운 이웃에 지붕 교체 봉사 8 군위군 대구시 편입 먹구름…국회의원 선거구 획정이 문제 9 군위군 대구편입 법률안 11월 국회 처리 유력 10 '리플' 7일간 47%급등 왜?…비트코인 1만9000달러 회복 1 제12호 태풍 ‘무이파’ 발생, 13호 '므르복' 예상 경로는? 2 대구경북통합신공항 민간공항 활주로 길이 3.8㎞, 시간당 50회 이착륙 목표 3 '금호강 르네상스' 100리 연결 레저공간 조성…지속가능한 금호강으로 '글로벌 내륙수변도시' 대구 추진 4 대구도시철도 순환선 'AGT 방식' 검토…노선 재점검 가능성도 5 날개꺾인 대구국제공항...일본.대만 노선 없어 시민들 김해로 6 [속보] 대구 수성구·포항 남구, 조정대상지역 해제 7 대구도시철도 순환선의 방향은?…유력 'AGT방식' 특징·향후 과제는 8 [단독-포토뉴스] 국민의힘 이준석 전 대표 포항 수해 복구 봉사활동 9 대구 도심 지형도 확 바꿀 대구공항 후적지 개발 10 오늘의운세 더보기 &gt; 호랑이띠 10월 4일 ( 음 9월 9일 )(오늘의 띠별 운세) (생년월일 운세) 영남생생 News 13개 국가 주한외교관, 안동병원서 1박2일 의료관광 시리즈 아이콘 안동한우홍보사절 선발대회 대경대 출신 이동화씨 '진(眞)' 시리즈 아이콘 대구본사 : 대구광역시 동구 동대구로 441(신천동 111번지) Tel. 053-756-8001 Fax. 053-756-9011 경북본사 : 경상북도 안동시 풍천면 수호로 59 우대빌딩 4층​ Tel. 054-857-9393 Fax. 054-857-8602 서울지사 : 서울특별시 중구 세종대로 124 프레스센터 11층 Tel. 02-738-9815 Fax. 02-738-8005 인터넷신문등록 : 대구 아00221 등록일자 : 2017.05.23 발행인 · 편집인 · 인쇄인 : 노병수 사업자등록번호 : 502-81-25414 법인명 : (주)영남일보 대표자 : 노병수 푸터로고 회사소개 개인정보취급방침 외간인쇄 구독신청 광고안내 청소년 보호정책(책임자 : 김기오, 서용덕) 언론 윤리 강령 신문윤리위 서약서 공정언론 편집규약 고충처리인 영남일보 뉴스를 만나보세요 페이스북 트위터 카카오스토리 유튜브 로그인 ㅣPC버전 Copyright ⓒ 2019 yeongnam All right reserved</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 제주-필리핀 직항전세기 운항 협약 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주-필리핀 직항전세기 운항 협약 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 제주-필리핀 직항전세기 운항 협약 기자명 고나연 기자 입력 2015.07.06 08:19 수정 2015.07.06 08:58 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연 기자 = 제주도와 제주도관광협회(회장 김영진)는 지난 2일  도내 여행업체와 공동으로 필리핀 마닐라 소재 현지 전세기 운항 전문 대형여행사인 락소트래블 본사에서 제주-마닐라 인·아웃바운드 직거래 시스템 구축 및 공동 상품개발에 대한 업무협약을 맺었다고 5일 밝혔다.이 결과 당초 5회 왕복 예정이던 전세기를 12월부터 내년 1월까지 왕복 10회로 증편하는 성과를 거뒀다락소트래블 관계자는 "제주도관광협회와 도내 관광업계와의 직접적인 업무협의를 통해 양 지역간의 직거래 모객을 강화하고 더 나아가 정기노선을 취항하고자 한다"는 의사를 밝혔다. 이번 필리핀 지역 홍보마케팅에는 전세기 운항을 위한 업무협약외에도 필리핀여행업협회등과 제주여행상품에 대한 B2B, B2C와 현지 여행업계와의 네트워크 구축 등 필리핀 관광시장의 교두보를 확보했다.도관광협회 관계자는 "메르스로 인해 중국을 비롯한 해외 인바운드 시장이 급랭된 상황에서 제주가 메르스와 사스가 발생하지 않은 청정 안전지역임을 해외 각국에 홍보를 강화하고 있다"며"또한 중국중심의 제주 인바운드 시장을 태국, 베트남, 필리핀, 말레이시아 등 동남아국가로 확대해 시장다변화를 통한 해외 인바운드 시장의 안정화에 전력을 쏟을 계획"이라고 말했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 호남 여행업계 관계자 관광설명회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 호남 여행업계 관계자 관광설명회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 연재 기관/단체 제주도관광협회, 호남 여행업계 관계자 관광설명회 개최 신동원 headlinejeju@headlinejeju.co.kr 승인 2015.07.03 11:33 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 2일 호남지역 제주여행상품 취급 전문 여행사 대표 등 여행업계 관계자를 대상으로 하는 제주관광설명회를 개최했다. 이번 관광설명회는 중동호흡기증후군 '메르스(MERS)'로 인해 어려움을 겪고 있는 제주관광시장의 활성화를 도모하기 위해 마련됐다. 설명회에서는 제주여행 수요감소 분위기 속에서도 꾸준한 영업활동 전개한 호남권 항공 및 여행업 관계자들에게 감사의 뜻을 전하고, 여름 휴가철 제주 여행상품 개발.판매 촉진을 위한 기업체 인센티브단 유치와 관련한 사업 설명이 진행됐다. 관광협회는 이 자리에서 지금까지 제주는 메르스 확진자가 한명도 발생하지 않은 청정지역임을 강조하며, 제주도에서는 공항만을 통해 입도하는 관광객이나 제주도내 주요 관광지.시설 등에서 발열감지기 가동하는 등 혹시 모를 전염병 발생 차단을 위한 예방활동에 행정과 산업계가 혼연일치해 노력하고 있다고 설명했다. 관광협회 관계자는 "그간 제주도와 관광협회에서는 메르스 사태 발생 이후에도 국내시장에서의 제주여행 수요확보를 위해 각종 관광 전문박람회 참가 홍보, 잠재수요대상 로드홍보, 코레일 상품개발자 대상 제주관광자원 답사, 제주 청정 이미지 홍보를 위한 언론인 초청 취재지원 등을 지속적으로 시행해 왔다며, 이번 여름성수기 성과가 올해 제주관광의 성과로 이어질 수 있도록 제주도내 관광업계가 전방위적인 노력을 경주해 나갈 것"이라고 말했다. 한편, 지난 6월 제주입도 관광객은 93만명으로 전년 동월대비 12.4%(잠정)의 감소세를 기록한 것으로 나타났다. &lt;헤드라인제주&gt; &lt;신동원 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 중국 크루즈 관광객 대상 메르스 청정지역 알린다! &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 중국 크루즈 관광객 대상 메르스 청정지역 알린다! 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도, 중국 크루즈 관광객 대상 메르스 청정지역 알린다! 기자명 최병근 기자 입력 2015.07.09 14:19 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 10일 오후 입도하는 크루즈 관광객에 대대적인 환영 이벤트 예정 [제주도민일보=최병근 기자] 제주도가 메르스 청정지역을 알리기 위해 중국 관광객들을 대상으로 대대적인 환영 행사를 연다.제주도는 10일 낮 1시 제주외항 8부두 크루즈전용 부두 및 크루즈 선내에서 제주항 입항 국제크루즈 환영행사를 연다고 9일 밝혔다.이날 제주로 들어오는 크루즈선은 사파이어 프린세스로 중국 상해를 출발해 제주와 일본나가사키를 들러 상해로 돌아가는 배편이다.제주도는 이날 3000여명의 관광객과 승무원을 대상으로 환영 꽃목걸이 및 기념품을 제공한다. 아울러 제주입항 환영 축하공연으로 풍물패, 사물놀이, 난타연주 등을 벌인다.한편 사파이어 프린세스는 버뮤다 국적으로 2004년 건조됐다. 여객정원은 2670명으로 총 톤수는 11만5875톤으로 길이는 290미터, 폭은 37미터에 이른다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>수익형부동산 투자 1순위! 1200만 관광객이 찾는 제주도, 제주성산골든튤립호텔 최대 연 16% 확정수익! &lt; 생활경제 &lt; 기사본문 - 아이티데일리 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 정책·산업 솔루션 클라우드 보안 하드웨어 글로벌 모바일 컨슈머 기획특집 기획특집 취재.txt 특별부록 인터뷰·사람들 인터뷰 사람들 기업 분석 기고·강좌 솔루션 리뷰·사례 컨퍼런스 로그인 회원가입 검색 주요뉴스 [CSAP 논의점 ②] ‘망’ 재정의 요구…‘중’ 등급 확대해야 SaaS 기업, CSP 성장 가능 이파피루스, 표 인식 강화된 AI OCR '텍스트센스 2.0’ 출시 지니언스, EDR 제품 국내 첫 국정원 보안기능확인서 획득…공공 시장 확대 [전문가 기고] 분석, 데이터 과학 및 머신러닝 툴 포트폴리오 구축·최적화 3단계 [전문가 강좌] AI 모델링에서의 하이퍼매개변수 최적화 [취재.txt] 디지털플랫폼정부의 데이터 전략, 호수 찾다가 늪에 빠진다 [IT산업 20년 전] 김대중 정부 벤처 정책의 성과와 한계를 되돌아보다 [기고] 부상하는 동남아, 현지화한 소셜 미디어 마케팅으로 공략하라 [기고] 제로 트러스트(Zero Trust) 보안체계 구현을 위한 차세대 인공지능 보안관제 [CIO 초대석] “복지 사각지대 ‘제로’ 달성에 기여할 것” 00:00 기사제보 구독신청 닫기 뉴스 정책·산업 솔루션 클라우드 보안 하드웨어 글로벌 모바일 컨슈머 기획특집 기획특집 취재.txt 특별부록 인터뷰·사람들 인터뷰 사람들 기업 분석 솔루션 리뷰·사례 기고·강좌 본문영역 이전 기사보기 다음 기사보기 수익형부동산 투자 1순위! 1200만 관광객이 찾는 제주도, 제주성산골든튤립호텔 최대 연 16% 확정수익! 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 수익형부동산 투자 1순위! 1200만 관광객이 찾는 제주도, 제주성산골든튤립호텔 최대 연 16% 확정수익! 기자명 온라인 뉴스팀 입력 2015.07.10 00:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 국제자산신탁사의 시행으로 100% 안전한 공사비 확보(2017년2월준공) [생활정보] 기준금리가 연 1%대로 떨어지면서 수익형 부동산으로 투자자들이 몰리는 가운데 최근 외국인 관광객이 급증하고 있는 제주도의 분양형호텔이 투자처로 주목을 받고 있다.제주도는 유네스코 3관왕, 세계 7대자연경관 선정 등이 맞물리면서 국내 관광지 가운데 외국인 관광객 성장세가 가장 두드러지는 곳이다. 지난해 제주도를 방문한 전체 관광객은 1227만명으로 세계적으로 유명한 섬관광지인 하와이, 발리, 오키나와 등도 넘지 못한 1000만명 이상의 관광객을 유치했다. 또한, 2020년에는 2,000만명을 넘어설 것이라는 전망이 나오고 있으며, 현재 6대핵심프로젝트, 핵심정책 사업 및 관광개발프로젝트 등이 연이어 추진되고 있다.이처럼 외국인 관광객은 크게 늘어나는데 비해 숙박시설은 여전히 부족한 실정이다. 해외에서 우리나라를 찾아오는 관광객은 2009년 이후 해마다 10% 이상 증가하고 있지만, 객실 증가율은 3% 대에 머물고 있다. 때문에 제주도의 호텔에 국내•외 많은 투자자들이 몰리고 있다.이러한 가운데 제주도 내 관광지 중에서 방문자수 1위를 기록하고 있는 성산일출봉 바로 앞에 3면 바다조망의 4성급 호텔 제주성산골든튤립호텔이 객실을 개별등기 분양 중이다.계약금은 10%이며 제1금융권에서 중도금 50%(4.5%)를 무이자로 대출받을 수 있고, 최초 1년간 실투자금 대비 연 11.5%(4.5% 이자지원으로 최대 16%)의 확정수익률을 보장해 주며, 중도금 50%에 대해 10년간 이자지원 혜택이 주어진다.제주성산골든튤립호텔은 지하 2층~지상 9층 규모, 객실 분양면적 35.17~76.84㎡, 총 252실로 구성된다. 성산 일출봉과 섭지코지, 우도 바다를 객실의 90% 이상이 바라보도록 설계하였고, 개별 테라스를 설치하여 제주의 환상적인 바다를 보다 생생하게 느낄 수 있다. 또한, 호텔 옥상에는 야외 수영장인 스카이풀이 조성되며, 고급 레스토랑, 비즈니스센터, 피트니스센터, 세미나룸 등의 편의 시설이 갖춰진다.제주성산골든튤립호텔은 성산일출봉과 드라마 '올인' 촬영지로 유명한 '섭지코지', 제주 주변 가장 큰 섬이자 매년 140만명이 방문하는 '우도', 내국인 면세점이 자리한 '성산항', 아시아 최대 수족관인 '아쿠아플라넷 제주' 등이 주변에 모여 있어 관광호텔로는 최고의 입지조건을 자랑한다. 인근에 138만㎡의 용지에 요트 300척이 정박할 수 있는 오션마리나시티 개발도 추진되고 있어 이 일대 관광 수요는 더욱 늘어날 전망이다.'골든튤립'은 유럽 최상위 호텔 체인 '루브르호텔그룹'의 상위 브랜드로, 등급으로 치면 'UPSCALE', 4성급에 해당한다. 루브르호텔그룹은 50개국에 2200여개의 호텔을 갖고 있으며, 골든튤립이란 이름으로 설립된 호텔은 전 세계에 230여 개가 있다.제주성산골든튤립호텔은 프로젝트파이낸싱(PF) 방식으로 사업이 진행되며, 공사비용을 100% 확보한 상태에서 분양하기 때문에 안전하다. 호텔 운영은 최근 정부가 선정하는 고용창출 100대 우수기업에 선정된 맥서브가 맡고, 골든튤립제주AMC에서 관리감독을 책임진다. 맥서브는 제2롯데월드몰과 삼성동 코엑스몰 등 대형쇼핑몰 운영을 맡고 있는 믿을 수 있는 업체이다. 또한, 배우 김상중이 전속모델로 활동하며 직접 홍보에 참여했다는 점도 이 호텔의 안정성과 신뢰도에 힘을 싣고 있다.분양 관계자는 “제주도에서 분양 중인 수익형 호텔은 밸류호텔서귀포JS, 디아일랜드마리나, 제주데이즈호텔, 골든튤립제주노형호텔, 강원라마다호텔, 데이즈호텔제주, 윈스카이호텔, 웨스턴그레이스호텔, 밸류호텔, 속초라마다호텔, 기흥엠스테이호텔, 성산라마다호텔, 디아일랜드마리나 등이 있지만 수익성과 안전성을 꼼꼼히 따져 옥석을 가려야 한다.”고 조언했다.제주성산골든튤립호텔 계약자에게는 연간 10일 객실을 무료로 이용할 수 있고 성수기에도 예약이 가능하다. 관리비는 따로 없으며 다른 사람에게 양도할 수도 있다. 또한, 제주 왕복 항공권 2매와 제주 제휴골프장 준회원 대우, 아쿠아플라넷 할인권 등을 제공한다.호수지정 신청금 100만원을 예금주 국제자산신탁(주) 계좌(BNK부산은행 113-2005-6551-06)로 입금한 뒤 호실을 지정 받은 후 방문해 계약을 체결하면 된다. 신청금은 미계약시 전액 환불된다.제주성산골든튤립호텔(http://제주성산골든튤립호텔홈페이지.com/)의 모델하우스는 서초동에 오픈되어 있으며 예약은 필수이다. 원활한 상담과 주차안내를 위해 예약접수 후 방문상담이 가능하다. 현재 오픈 이벤트로 황금 튤립 열쇠를 증정하는 행사도 진행 중이다. 분양문의 : 1599-1731 온라인 뉴스팀 @ 다른기사 보기 저작권자 © 아이티데일리 무단전재 및 재배포 금지 IT DAILY 추천뉴스 [커버스토리] 클라우드 운영·관리 혁신 ‘열쇠’로 부상한 클라우드 관리 플랫폼 [기획특집] ‘창고’와 ‘호수’를 넘어서는 데이터 레이크하우스 [시장동향] AI 등 다양한 기술 적용해 스마트하게 진화하는 RPA 솔루션 [기획특집] 보안의 기본, 안티 바이러스 [초점] 상반기 가상자산 노린 랜섬웨어 기승…하반기엔 ‘관광산업’ 주의보 [시장동향] ‘차세대 방화벽’은 아직도 진화 중 [기획특집] CNAPP로 클라우드 보안 ‘모두’ 챙긴다 [이슈조명] 클라우드 저변 확대의 첨병, ‘클라우드 서비스 이용지원 사업’ 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 [인터뷰] “명품 VPN과 차세대 ZTNA 솔루션으로 국내 시장 본격 공략” [인터뷰] “백업에 보안 역량 더해 전문 SaaS 공급사로 거듭난다” SK쉴더스, 금융보안원과 보이스피싱 예방 및 대응 위한 MOU 체결 틸론, 디지털플랫폼정부 인프라 구성과 메타버스·블록체인 활용방안 제시 크라우드스트라이크, ‘팔콘 인사이트 XDR’ 출시 레드햇, ‘레드햇 오픈스택 플랫폼 17’ 출시 인기뉴스 1 [글로벌] 목성, 27일 166년 중 가장 크고 밝게 빛난다…사진작가들에 희소식 2 엔비디아, ‘호퍼’ 아키텍처 기반 ‘H100 텐서코어 GPU’ 본격 생산 시작 3 엔비디아, ‘지포스 RTX 40 시리즈’ GPU 출시 4 행정안전부, 공공 웹·앱 UI/UX 개선 추진 5 네이버클라우드, ‘한-미 스타트업 서밋’ 참여 6 [초점] 주목받는 ‘한국PMO협회’ 7 [전문가 강좌] AI 모델링에서의 하이퍼매개변수 최적화 8 [좌담회] “CSAP 등급제 개편, 민간 클라우드 활성화에 역점 둬야” 9 가트너, CIO가 주목해야 할 7가지 기술 전망 트렌드 발표 10 주호시스템즈, KT클라우드 마켓에 통합로그솔루션 ‘로그세이버’ 입점 기획특집 [CSAP 논의점 ②] ‘망’ 재정의 요구…‘중’ 등급 확대해야 SaaS 기업, CSP 성장 가능 [IT산업 20년 전] 김대중 정부 벤처 정책의 성과와 한계를 되돌아보다 [좌담회] “CSAP 등급제 개편, 민간 클라우드 활성화에 역점 둬야” [CSAP 논의점 ①] 디플정위원회로 회부…분류 기준, 데이터 민감도 고려해야 최신뉴스 [CSAP 논의점 ②] ‘망’ 재정의 요구…‘중’ 등급 확대해야 SaaS 기업, CSP 성장 가능 이파피루스, 표 인식 강화된 AI OCR '텍스트센스 2.0’ 출시 지니언스, EDR 제품 국내 첫 국정원 보안기능확인서 획득…공공 시장 확대 [전문가 기고] 분석, 데이터 과학 및 머신러닝 툴 포트폴리오 구축·최적화 3단계 [전문가 강좌] AI 모델링에서의 하이퍼매개변수 최적화 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 서비스 전체보기 매체정보 서울특별시 금천구 가산디지털1로 181 (가산 더블유센터) 1713~1715호 대표전화 : 02-2039-6160 팩스 : 02-2039-6163 청소년보호책임자 : 김선오 법인명 : (주)아이티엠지 제호 : 아이티데일리 등록번호 : 서울 아 00418 등록일 : 2007-08 발행일 : 발행인 : 김용석 편집인 : 김선오 아이티데일리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 아이티데일리. All rights reserved. mail to info@itdaily.kr 위로 전체메뉴 전체기사 뉴스 전체 정책·산업 솔루션 클라우드 보안 하드웨어 글로벌 모바일 컨슈머 기획특집 전체 기획특집 취재.txt 특별부록 인터뷰·사람들 전체 인터뷰 사람들 기업 분석 솔루션 리뷰·사례 기고·강좌 생활경제 전체 라이프 헬스 경제 뷰티 교육 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 웰니스 관광콘텐츠 개발에 나서 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 웰니스 관광콘텐츠 개발에 나서 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 웰니스 관광콘텐츠 개발에 나서 기자명 김영하 기자 입력 2015.07.02 14:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [제주도민일보=김영하 기자] 제주도관광협회는 제주-강원지역 간 연계협력을 기반으로 한 ‘MICARE산업(목적형 웰니스관광) 생태계 육성지원사업‘을 이달부터 본격 추진한다고 2일 밝혔다.산업통상자원부가 경제협력권산업 육성사업의 일환으로 추진하는 지역협력형 비R&amp;D 사업 중 하나인 이 사업은 국내시장을 선도할 수 있는 MICARE산업 생태계를 육성하기 위한 사업이다.전 세계적으로 명상·요가·트레킹·스파·음식 등을 통한 심신의 치유와 자연과의 상생을 핵심 콘텐츠로 한 웰니스 관광(Wellness Tourism)이 관광분야의 새로운 고부가가치 트렌드로 대두되고 있다. 또 웰니스를 목적으로 한 관광객의 비중 또한 점진적으로 증가하는 추세다.글로벌 통계기준 2013년 웰니스관광객은 5억8600만명, 관광수입은 494조 달러로 2012년에 비해 12% 증가했다.기존에 관광산업의 인프라 구축 및 조성을 위한 개발 등으로 인해 자연환경의 훼손돼 왔다. 그러나 앞으로는 제주 자연환경의 포용한계를 고려한 지속가능한 제주 관광산업의 미래전략 수립의 필요성이 대두되고 있다.이에 도관광협회는 주관기관인 제주한라병원과 참여기관인 춘천바이오산업진흥원, 제주관광문화산업진흥원, (주)가교로 구성된 컨소시엄을 통해 휴양·오락 등 흥미요소(Fun)에 목적을 둔 기존 제주관광에 ‘웰니스’의 콘셉트를 융합한 글로벌 경쟁력을 갖춘 유망제품(의‧식‧주‧심 분야)을 개발·홍보할 계획이다.이를 통해 관광의 다각화와 ‘Wellness Island Jeju’, ‘LOHAS의 섬 제주’ 등 자연친화적인 관광지로서 이미지 브랜딩을 통해 지속가능한 관광으로 진입하기 위한 토대를 마련키로 했다.관광협회는 앞으로 목적형 웰니스 관광객을 대상으로 한 상품 개발지원 및 확산 지원, 타켓 맞춤형 인증(종교-Halal인증, 환경친화형-EMAS인증,LOHAS인증 등) 획득을 위한 기술지원, 현장교육 중심형 지역특성화 전문인력 양성 등의 역량강화 사업을 진행할 계획이다.휴양형 MICARE(MICE+Healthcare)산업은 휴양이 내포하는 관광의 미래지향성을 기반으로 MICE산업과 Healthcare산업이 전통적 정의를 전체적으로 포괄하는 산업이다. 제주의 MICE산업과 강원의 Healthcare산업이 기 추진된 자체 산업의 발전 기반을 바탕으로 중복적 투자 요소를 방지하고 상호 보완적으로 각 권역 발전을 지원할 수 있도록 추진하는 산업을 말한다. 김영하 기자 yhkim9356@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>허수경, "이효리 이해, 제주도 집 찾는 관광객 신경 쓰여" (해피투게더) 즐겨찾기 추가 글로벌 티브이데일리 중국 SINA.com QQ.com hi好酷.com 홍콩 Yahoo HK Koreastardaily MSN HK 3HK Gameone 대만 Yahoo TW MSN TW 베트남 The gioi dienanh 라오스 Vientiane Times 태국 PPTV 홈 로그인 회원가입 기사제보 방송 가요 예능 영화 포토 영상뉴스 해외연예 인터뷰 연예칼럼 문화/사회 만화 허수경, "이효리 이해, 제주도 집 찾는 관광객 신경 쓰여" (해피투게더)2015. 07.03(금) 08:25 허수경 이효리 허수경 해피투게더 허수경 제주도 [티브이데일리 양소영 기자] 방송인 허수경이 가수 이효리의 고충을 이해한다고 밝혔다. 2일 밤 방송된 KBS2 '해피투게더3'에서는 7월 여름 스페셜 야간매점 1탄으로 '전설의 MC' 매점 편이 전파를 탔다. 게스트로는 이덕화 이홍렬 박준규 허수경 광희 이연복이 출연했다. 이날 허수경은 "제주도에 산지 10년이 넘었다. (서울에) 3일 정도 와서 일을 싹하고 집에 간다. 내가 서울에 가면 딸이 제주도에 혼자 있다. 요즘엔 라디오 생방송을 해서 엄마랑 떨어져 있는 시간이 4일간 정도다"고 말했다. '해피투게더' 스튜디오 한 편에는 허수경의 딸 허별도 함께 했다. 이에 출연진들은 '해피선데이-슈퍼맨이 돌아왔다'에 출연한 적이 있는 허수경의 딸에게 "서언이가 좋아하는 딸 아니냐"며 반가워했다. 또한 허수경은 제주도 집을 방문한 지인을 묻는 질문에 "양희경은 자주 오고 손석희도 가끔 온다"고 밝혔다. 이어 허수경은 "얼마 전에 이효리 씨가 고충을 토로하고 그런 게 이해된다. 아침에 세수를 안 하고 일어나면 밖으로 나와서 텃밭을 정리한다. 풀 뽑고 있는데 사람들이 인사를 한다. 옷도 그렇고 신경이 쓰이더라"고 말했다. 허수경은 "가끔 어떤 사람들은 지인들을 위한 게스트룸에 묵어도 되냐고 한다. 그래서 곤란한 경우가 있다"며 고충을 토로해 눈길을 모았다. [티브이데일리 양소영 기자 news@tvdaily.co.kr / 사진=KBS2 방송화면 캡처] 기사제보 news@tvdaily.co.kr        양소영 기자의 다른 기사 보기 키워드 : 허수경 이효리 [단독] 아이유, 해외 일정 중 확진자와 밀접접촉→춘사영화제 불참'마약 혐의' 돈 스파이크, 사실상 연예계 퇴출 [이슈&amp;톡] 뒤늦게 연애리얼리티 열풍 합류한 디플, 기대와 우려… 열애설 수습 나선 박민영, 석연치 않은 해명에 등돌… '불타는 트롯맨' vs '미스터트롯2', 패널 눈치… 코인 자본 흡수한 K-컬처 시장의 빛과 그림자 [엔… 두나무X하이브·YG플러스 만남, K-팝 새 시장 창… '작은 아씨들' 엄기준 자살→김고은 70… 결혼 앞둔 지연♥황재균, 애정 가득 헬스… '황금가면' 이중문, 나영희에 일침 "S… '작은 아씨들' 남지현·위하준, 엄기준 … 김선호 미공개 사진 대방출, 밝은 미소 … "너무 무례" 박은지, 늦은밤 경비실 인… '갑상선 유두암 완치' 박소담, 라디오 … [TD포토+] 임윤아의 든든한 응원 …[TD포토+] 소연-이청아-서현 '불… 러시아 래퍼, 푸틴 '동원령'에 반발→극단적 선택 두아 리파X트레버 노아, 열애설 부인 "… 두아 리파, 11살 연상 유명 코미디언과… 美 유명 래퍼 쿨리오 사망 아나운서 ‘임현주’의 참된 외모 사용법 [윤지혜의 대중탐구영역] 김혜수ㆍ장근석, 가족경영 폐해를 대하는 … '너를 만났다' 다큐의 존재 목적, 저희… 백종원, 다 큰 어른에게도 혼내 줄 사람… 회사소개 회원약관 개인정보취급방침 청소년보호정책 고객센터 제휴문의 광고문의 인터넷신문윤리강령 - 바로가기 - 스포츠투데이 더셀럽 명칭 : (주)티브이데일리등록번호 : 서울 아 00742등록연월일 : 2009.1.21제호 : 티브이데일리발행/편집인 : 김범열 발행소 : (07803) 서울특별시 강서구 마곡중앙6로 66, B동 1204호발행연월일 : 2009.1.28청소년보호책임자 : 이선민 TEL : 02)3443-8246~7FAX : 02)3443-8248Copyright(c) TV Daily. All rights reserved.</t>
-  </si>
-  <si>
-    <t>[부고] 정윤종(제주도관광협회 실장)씨 별세 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 [부고] 정윤종(제주도관광협회 실장)씨 별세 글로벌모터즈 온타임즈 PDF지면보기 English 中文 종합 facebook twitter youtube 검색 메뉴 정치 경제 사회 전국 인물동정·인사·부고 기타 공유 0 [부고] 정윤종(제주도관광협회 실장)씨 별세 유창희 기자 입력2015-07-22 17:01 ▲ 정윤종(제주도관광협회 실장)씨 별세 = 22일 오후, 제주시 부민장례식장 4분향실, 발인 24일 오전 7시 ☎ 064-742-8861유창희 기자 changhee@ 중국 뉴스 기본정보 무역 투자 비즈니스 여행 제19회 광저우 국제모터쇼 현장 스케치 2021.12.04 중국 충칭 온라인 애완용품 플랫폼(E-PET) 내 한국관 개설 및 판촉전 현장 2021.12.04 中, 반독점·반부정당경쟁법 집행 강화 2021.11.30 중국에서 지분 양도 시 발생하는 세금에 관한 분석 및 시사점 2021.11.24 중국 위조 화장품 최신동향 분석과 시사점 2021.11.24 헤드라인 뉴스 [뉴욕증시] 국채 수익률 하락 나스닥 2.27% 급등 [뉴욕 e종목] 테슬라 투매 나왔나…주가 8.6% 폭락 "美 중간 선거 후 한국산 전기차 차별 해소 가능성" 글로벌비즈 러시아, 이탈리아에 러시아산 천연가스 3일부터 공급중단 日 미쓰비시중공업, 보다 안전한 원자로 개발 착수 일본제철, 아르셀로미탈과 손잡고 인도 철강 생산 확대에 74억달러 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 폴란드, SNT모티브 K4 고속유탄기관총 구매 공식 발표…지상군 화력강화 美, 濠와 공기흡입식 극초음속 미사일 공동개발 루마니아, 한국의 K9자주포와 K2흑표전차 구매 희망 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 삼성전자, 테슬라에 공급될 반도체 놓고 TSMC와 격돌…TSMC에 물... 日 엔화, 달러당 145엔 돌파…이전 개입 수준에 근접 [초점] 중국, 'AI굴기' 가시화…인재교육·재정지원 강화 일본맥도널드, 7일부터 전매장 종이 빨대·목재 식기 순차 도입 금감원, 금융사고 예방 내부통제 개선···명령휴가제 의무화 Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 '생방송투데이' 자족식당 밤오리누룽지백숙, 맛있GO 6500원 장어탕 2 2TV 저녁 생생정보 장사의신 12000원 왕만두전골 3 제2회 광명영화제 대상에 '친구야, 청산가자'…남자연기상 김민동·여자연기상 장무식 선정 4 개천절 전국 흐리고 비…미세먼지 ‘좋음’ 5 달러 급했나?..해외주식 '원화' 환전시 인센티브 검토 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 종합 실시간 뉴스 2분전 정부 주도 일자리 창출과 소득주도성장은 '상상 속 이야기' 尹 "北, 4000km미사일 발사...국제사회 결연히 대응할 것" 광명시, 개청 41주년 시민화합체육대회 4000여명 참여 1시간전 안산시, 안산시민의 날 기념식·체육행사 성황리에 마무리 조희창(목사) 조희걸(목사) 조희연 (서울시 교육감) 모친상 달러 급했나?..해외주식 '원화' 환전시 인센티브 검토 14시간전 국제전기통신연합 이사국에 대한민국 9회 연속 선출 '생방송투데이' 자족식당 밤오리누룽지백숙, 맛있GO 6500원 장어탕 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
+    <t>제주도, 관광진흥기금 메르스 특별융자 대상자 확정 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광진흥기금 메르스 특별융자 대상자 확정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 관광진흥기금 메르스 특별융자 대상자 확정 기자명 고병수 기자 입력 2015.07.29 23:14 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주특별자치도는 하반기 관광진흥기금 메르스 특별융자 신청에 대한 지원 대상자를 27일 확정해 공고했다고 29일 밝혔다.도에 따르면 지원 대상 및 지원금액은 총 148개 사업체에 304억원이다. 분야별로 숙박업 분야는 총 62개소에 177억원을, 일반 및 국내․외 여행업 분야는 총 56개소에 48억원, 그리고 박물관, 관광식당, 공연장 등 기타 관광사업체에 대한 지원이 총 30개소에 79억원으로 확정됐다. 특히 이번 메르스 특별 융자와 관련해 경영난을 겪고 있는 관광 사업체 지원을 위해 대상 업종을 확대해 기존 해당 사업체 외에 추가로 47개 사업체가 78억원의 기금 지원 수혜를 받을 수 있게 됐다.금리는 개인이나 중소기업의 경우 0.75%의 우대 금리를 적용하며 분기별로 변동된다. 이번에는 공자금리는 1.97%로, 우대 금리 적용시 1.22%의 이자만 수요자가 부담하며 관광진흥기금이 부담하는 금리는 2.8%가 되며 상환기간은 1년거치 2년 분할상환이다.한편 도는 지난 6월 26일부터 7월 16일까지 15일간 제주관광진흥기금 하반기 융자지원계획 신청접수를 받았으며 메르스 특별융자의 경우 156개 사업체에서 394억원의 지원 신청을 받은 바 있다.이와 함께 시설 및 개보수에 대한 제주관광진흥기금 융자지원 대상자 선정은 오는 8월 17일 공고할 예정이다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 中 골프관광객 유치에 시동 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 中 골프관광객 유치에 시동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도, 中 골프관광객 유치에 시동 기자명 김영하 기자 입력 2015.07.29 11:18 댓글 3 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [제주도민일보=김영하 기자] 제주도가 중국 골프관광객 유치에 시동을 걸었다.제주도는 지난 20일부터 23일까지 도내 골프업계와 중국 골프관광객 공동 유치단을 구성해 중국 상해, 항주 지역을 대상으로 마케팅 활동을 전개했다. 그 결과 골프관광객 400여명 유치협약을 체결했다.먼저 고강자 국제여행사가 9월부터 11월까지 400여명을 모객하고 도 골프협회에서는 그들을 대상으로 대회를 개최키로 협약을 체결했다.중국최대 온라인 여행사인 Ctrip에서는 내년 3월부터 한국-대만-일본을 연결하는 3박4일 일정의 크루즈 골프 관광상품 기획을 적극 검토키로 했다.Ctrip은 1999년 설립된 여행사로 직원은 1만2000명, 온라인회원 20만 명을 보유하고 있다, 자산규모는 100억 달러가 넘는다.이밖에도 절상(잡지사) 및 상하이 Green Golf club 등에서도 회원을 대상으로 한 골프대회를 제주 개최를 검토키로 했다.도는 이에 따라 민관공동 TF팀을 운영하는 등 지원에 나서기로 했다. 김영하 기자 yhkim9356@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 3 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. 400명 2015-07-30 10:08:15 더보기 삭제하기 와.. 도에서 움직이는 사업으로.. 400명유치라니... 상해, 항주지역을 돌아다닌 예산이면.. 4천명은 해와야 되는거 아닌가 답글쓰기 0 0 400명 2015-07-30 10:08:15 더보기 삭제하기 와.. 도에서 움직이는 사업으로.. 400명유치라니... 상해, 항주지역을 돌아다닌 예산이면.. 4천명은 해와야 되는거 아닌가 답글쓰기 0 0 400명 2015-07-30 10:08:06 더보기 삭제하기 와.. 도에서 움직이는 사업으로.. 400명유치라니... 상해, 항주지역을 돌아다닌 예산이면.. 4천명은 해와야 되는거 아닌가 답글쓰기 0 0 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[제주창조경제혁신센터를 가다]代를 이은 녹차사랑…서경배 회장 제주도를 녹차관광 메카로 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 [제주창조경제혁신센터를 가다]代를 이은 녹차사랑…서경배 회장 "제주도를 녹차관광 메카로" 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 [제주창조경제혁신센터를 가다]代를 이은 녹차사랑…서경배 회장 "제주도를 녹차관광 메카로" 기자정보, 기사등록일 입력 2015-07-30 00:00 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 아모레퍼시픽그룹 서경배 회장 아주경제 한지연 기자 = "일본의 차(茶) 문화는 원래 한국에서 건너간 것인데 그들이 그것을 다듬고 가꿔서 자신의 것처럼 세계에 자랑하고 있습니다. 아무도 안하니 나라도 녹차를 우리 고유의 차로 다시 키워내야겠습니다." 아모레퍼시픽을 창업 한 고 서성환 회장이 평소 주위 사람들에게 입버릇처럼 하던 말이다. 서 창업주는 늘 "나라가 힘이 없고 문화 산업을 전파할 대기업이 없어 아름답던 한국의 차문화가 사라지고 있다"며 안타까워했다. 결국 그는 1979년 경영진의 반대를 무릅쓰고 제주 한라산 남서쪽 도순 지역의 황무지를 녹차밭으로 개간하기 시작했다. 서 창업주의 녹차사업은 시작부터 순탄치 않았다. 사업 공표 직후 태평양 경영진들은 "화장품 사업으로 번 돈을 차 사업으로 날려버릴 수 없다"며 그를 압박했다. 차 재배를 위한 부지매입도 지역민들의 거센 반발에 부딪혔다. 차밭 개간을 위한 부지 매입을 땅투기로 오인한 제주도민들의 항의가 빗발쳤기 때문이다. 관련기사공정위, '불만글' 숨기는 등 네이처리퍼블릭·아모레 등 화장품e몰 '기만죄'지하철 4호선 출구 직접 연결된 '래미안 용산SI' 인기 그러나 '커피보다 좋은 차를 국민들에게 전하겠다'는 서 창업주의 고집은 꺾이지 않았다. 그는 사재를 털어 녹차사업을 시작했고, 도민들을 설득하는 작업도 포기하지 않았다. 서 창업주의 노력으로 아모레퍼시픽의 설록차는 36년만에 한국을 대표하는 차가 됐다. 서경배 회장은 그런 아버지의 '뚝심'을 보고 자랐다. 아들은 이제 아버지가 만든 차를 제주와 연계해 세계를 대표하는 관광상품으로 육성하고 있다. 가장 대표적인 성공모델은 서경배 회장이 2001년 제주 서광다원에 개관한 녹차박물관 '오설록 티 뮤지엄'이다. 국내 최초의 차 전시관인 이 곳은 '녹차 문화를 널리 확산시켜야 한다'는 부친의 뜻을 지키기 위해 서경배 회장이 2001년 9월 개관했다. 더 많은 사람들이 제주의 아름다움과 녹차 문화를 접할 수 있도록 무료 입장이 원칙이다. 박물관은 녹차 히스토리는 물론 다도 체험과 햇차 페스티벌 등 다양한 문화행사를 제주와 연계했다. 현재 연간 관람객이 120만여명에 이르며 이 가운데 대부분은 중국·일본·유럽 관광객이다. 서 회장은 2013년 3월에는 오설록 티 뮤지엄 옆에 복합 차(茶)문화 체험을 위한 새로운 ‘오설록 티스톤(Tea Stone)'도 만들었다. 오설록 티스톤은 선조들이 먹과 벼루를 활용해 문화와 예술을 표현했듯이 우리 차문화를 확산하는 근간이 되겠다는 의미다. 오설록 티스톤에서는 발효차 및 블렌딩 티 체험, 다식과 입욕제 만들기, 추사 갤러리 관람 등을 경험할 수 있다.특히 발효차 개발에 얽힌 스토리를 접할 수 있으며, 제주 삼나무 통을 활용해 만든 발효차 '삼다연'을 직접 시음해 볼 수 있다. 서경배 회장은 요즘 부친이 한평생 일궜던 '녹차의 대중화'를 '명품화'하는 데 앞장서고 있다. 서 회장은 녹차의 품질을 높이기 위해 2002년부터 다원 바로 옆에 국내 최대 규모의 차 연구소를 설립했다. 이곳에 토양관리, 재배, 육종, 가공분야 등 과학적인 시스템을 구축하고 제주 녹차재배 농가들에게 재배기법을 전수해 오고 있다. 2009년부터는 전 다원에서 화학비료를 전혀 사용하지 않는 유기 재배 방식으로 생산해 '제주 녹차'가 세계적인 녹차 브랜드로 자리잡는 데 일조하고 있다. 제주 녹차 발전 연구회, 다원 주변 마을 등도 후원하고 있다. 특히 녹차 재배를 위한 비료, 친환경 약제, 포장재 구매를 통해 지역 경제 협력도 지속하고 있다. 그 결과 '오설록'은 지난 한중정상회담에서 중국 시진핑 국가 주석 내외의 선물로 제공되는 등 국내 최고급 명차 브랜드로 입증 받았다. 서경배 회장은 "아버님의 제주 녹차 사랑에 비하면 나는 아직 반의 반도 못따라 간다"며 "앞으로 제주내 식물종 및 화장품 산업을 육성하기 위해 관련 연구를 지원하고, K-뷰티-문화-체험을 융합한 관광 콘텐츠로 제주경제 활성화에 앞장서겠다"고 강조했다. [사진=아모레퍼시픽 제공. 개간 전 제주 도순다원] #녹차 #서경배 #설록차 #아모레퍼시픽 #제주도 #제주창조경제혁신센터 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 69월 CPI·FOMC 의사록·어닝시즌에 "불안감 증폭" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 6세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 7숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>제주도, 세계지속가능한 관광위원회 회원 가입 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 세계지속가능한 관광위원회 회원 가입 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도, 세계지속가능한 관광위원회 회원 가입 기자명 이승록 기자					(leerevol@naver.com) 입력 2015.07.21 19:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 원희룡 지사가 21일 세계지속가능한 관광위원회 랜디 더번드 사무총장의 예방을 받고 있다. 제주도가 세계지속가능한 관광위원회 회원 가입을 추진한다. 원희룡 제주지사는 21일 오후 4시 30분, 집무실에서 세계지속가능한관광위원회 랜디 더번드 사무총과 제주의 지속가능 생태관광 활성화 방안 논의를 위한 간담회를 가졌다.세계지속가능한관광위원회(GSTC, Global Sustainable Tourism Council)는 세계관광기구, 유엔환경계획 등의 유엔기구와 주요 국제환경단체들의 후원으로 2008년 설립된 비영리 국제기구로 관광분야 전반 이해관계자가 자발적으로 참여하는 단체이다.GSTC는 생태관광을 포함한 지속가능한 관광 전반에서의 국제 표준(호텔 및 여행사 기준, 관광지 기준)을 제공하고 인증을 실시하고 있으며 기관단위로 인증한다.이번 간담회는 세계리더스보전포럼 국제기구 관계자와의 Round Table 회의에 참석했던 국제생태관광협회 켈리 브릭커 회장으로부터 제주도의 지속가능한 관광에 대한 기본틀로서 세계지속가능한 관광위원회와 연계하는데 필요한 정보나 지원을 제공하고 싶다는 내용과 GSTC 사무총장 한국방문시 지사님 면담 요청의 서신이 접수되어 이뤄진 것이다.  간담회에서 원지사는 생태관광의 교육과 훈련등 관련된 컨퍼런스나 워크숍 참여등을 언급하며 GSTC 회원 가입 의사를 밝혔다. ▲ 원희룡 지사가 21일 세계지속가능한 관광위원회 랜디 더번드 사무총장의 예방을 받고 있다. 또한 원 지사는 “제주는 유네스코가 지정한 자연유산이며, 세계환경수도를 꿈꾸는 지역으로서 GSTC 인증에 적합한 지역이며, 많은 관심을 가지고 있다”고 말했다. 원지사는 “제주는 환경을 기반으로 고급관광으로 가야하고 제주만의 독특한 제주관광 모델을 만들기를 희망한다”고 말했다.랜디 더번드 사무총장은 “GSTC의 회원은 전 세계적으로 150개의 UN산하기구, 정부기관, 호텔, 여행사 등으로 인증을 획득한 표준은 2015년 7월 현재 25개”라며 “제주도에서도 회원가입하여 올해 9월 중국 황산에서 열리는 정기총회에 참석하기를 희망한다”고 밝혔다.랜디 더번드 사무총장은 “GSTC 업무로 아시아에서 많은 시간을 보내고 있으니 추가적인 협의를 위한 만남은 정기총회가 열리는 9월중 가능하다”고 말하여 다음 만남을 기약했다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-중국국제여행사 제주관광 활성화 협력 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도-중국국제여행사 제주관광 활성화 협력 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도-중국국제여행사 제주관광 활성화 협력 기자명 강승남 기자 입력 2015.07.24 15:23 수정 2015.07.24 15:24 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 원희룡 지사-유닝닝 총재 24일 면담…공동홍보 약속 원희룡 제주도지사가 중국 베이징 중국국제여행사(CITS) 본사를 방문, 유닝닝 총재를 면담해 제주관광의 질을 높이기 위해 공동 노력하기로 했다고 전했다.원 지사는 이 자리에서 “제주 관광의 수준을 끌어올리고 중국관광객의 만족도를 높이길 원한다”며 CITS와 실질적인 협력을 당부했다. 이에 유닝닝 총재는 “최근 중국여유국장(한국의 문화관광부장관)의 방한시 세미나에서 도지사의 의견과 똑같은 이야기를 한 적이 있다”고 소개한 뒤 “오늘 이 자리에 한국관광과 관련한 모든 부서의 책임자를 데리고 왔다”고 말했다. 이어 유닝닝 총재는 “원 지사는 CITS를 방문한 한국의 많은 VIP중에서 가장 중국말을 잘 한다”며 “8월 말 준비 중인 CITS의 제주 기항 크루즈 선이 만선을 이뤘다”고 전했다. 원 지사는 제주관광의 질을 높이기 위해 제주도가 준비하고 있는 공항· 항만 확충 및 대중교통체계 개편 등의 인프라, 그리고 관광객들의 다양한 요구를 충족하는 콘텐츠 및  스토리, 중국관광객이 제주도를 편안하게 느낄 수 있도록 하는 서비스 개선 등을 강조하면서 중국최대 관광회사인 CITS의 협력을 요청했다. 유닝닝 총재는 "CITS가 적극적으로 돕겠다며 이미 CITS가 보유하고 있는 중국최대의 관광네트워크는 물론 신문과 잡지를 통해서도 제주도가 좋은 아이템을 제안하면 공동 홍보하자"고 화답했다. 강승남 기자 stipool@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 방문 관광객 700만명 사상 최단기간 돌파 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도 방문 관광객 700만명 사상 최단기간 돌파 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도 방문 관광객 700만명 사상 최단기간 돌파 송고시간2015-07-20 12:03 日本語 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 해수욕 즐기는 제주 관광객 ((연합뉴스 자료사진)) (제주=연합뉴스) 고성식 기자 = 올해 들어 제주도를 방문한 누적 관광객이 사상 최단 기간에 700만명을 돌파한다. 제주도관광협회에 따르면 올 들어 이달 19일까지 제주를 찾은 관광객이 698만3천287명으로 지난해 같은 기간 636만5천664명에 견줘 9.7％(61만7천623명) 증가했다. 최근 하루 입도 관광객이 2만명 정도인 점을 놓고 볼 때 20일에는 누적 관광객이 700만명을 넘어설 것이 확실시된다. 광고 내국인 관광객은 558만3천176명으로 지난해 같은 기간(479만3천844명)과 비교해 16.5％ 증가했다. 외국인 관광객은 140만111명으로 전년 같은 기간(157만1천820명)보다 10.9％ 감소했다. 도 관광협회는 지난달 중동호흡기증후군(메르스) 사태로 인한 외국인 관광객의 감소세가 이달까지 이어지고 있으나 수학여행단과 휴양을 즐기는 친구·가족단위 내국인 개별 관광객은 증가했다고 설명했다. 제주 관광객은 지난 2010년(11월 27일) 사상 처음으로 누적 700만명을 넘어섰다. 이어 700만명 돌파 시점이 2011년 10월 18일, 2012년 9월 18일, 2013년 8월 29일, 2014년 8월 5일로 꾸준히 앞당겨졌다. 올해는 지난해에 비해서도 보름 이상 이른 시일 내에 누적 관광객 700만명을 달성할 것으로 예상된다. koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/07/20 12:03 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 영상 기사 재생시간 01:38 [영상] 러시아 본토-크림반도 연결 크림대교서 대규모 폭발…통행 중단 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 80대 아버지 흉기로 찔러 살해…60대 아들 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 동거녀의 13살 딸 엉덩이 깨물어 학대…50대 징역형 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 혼자 사는 70대 여성 살해하고 달아난 50대 검거 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) '90년대 강남 큰손' 조춘자 또 분양사기…징역 7년 추가 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 스타트렉 선장 "우주여행, 장례식 같았다…가장 슬픈 경험" 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 김하성, 3볼넷 3득점 1도루 '펄펄'…샌디에이고, NLDS 진출 칼 꺼낸 최하위 한화 이글스, 신정락 등 12명과 작별 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 지독한 미스터리에 감성 더한 '작은아씨들' 시청률 11.1%로 종영 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 尹대통령 "북핵 위협 날로 심각…한미·한미일 안보협력 대응" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 러 우크라 전역 대규모 공습…최소 11명 사망, 주요 인프라 파괴 美, 김정은 '대화 불필요' 주장에 "여전히 외교적 접근 전념" 올해 누적 무역적자 300억달러 돌파…10월 1∼10일 수출 20.2%↓ 광고 댓글 많은 뉴스 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 댓글수 59 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 25 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도내 해변·주요관광지 ‘암행어사’뜬다 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도내 해변·주요관광지 ‘암행어사’뜬다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도내 해변·주요관광지 ‘암행어사’뜬다 기자명 최병근 기자 입력 2015.07.27 09:33 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도 감사위,8월 21일까지 관리·운영실태 점검 나서 [제주도민일보=최병근 기자] 제주도내 해변과 주요관광지에 암행어사가 뜬다.제주도 감사위원회는 여름 휴가철 관리운영 실태를 점검하고 이용객 안전사고 예방 및 불편사항을 해소하기 위해 해변, 주요관광지 등에 대한 관리·운영실태를 27일부터 8월 21일까지 점검한다고 밝혔다.이번 점검대상은 해변으로 지정(고시)된 이호테우해변 등 11개소, 제주돌문화공원 등 주요관광지 6개소, 올레코스 4개소, 도서지역 등 25개소에 대해 도민감사관 44명과 합동으로 점검을 벌일 예정이다.해변의 주요 점검사항은 해변별 종합상황실 등 운영실태, 물놀이 안전사고 예방대책, 부당요금 징수 등 상거래질서 문란행위, 해변기능 및 편의시설물 안전관리 실태, 해변 환경오염 및 쓰레기처리 실태 등이다.주요관광지 및 올레코스, 도서지역 점검대상은 불친절 행위, 관광지 시설물 및 안내표지판 정비 상태, 관광지 환경정비 실태, 관광지 주변 불법 상행위 등 무질서 행위 등이다.감사위는 이번 점검결과 시정 가능한 경미한 사항은 현장에서 즉시 시정조치하고 근본적이 대책이 필요한 시정, 개선사항은 관계부서에 통보해 시책에 반영토록 한다는 방침이다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>&lt;부고&gt; 정윤종(제주도관광협회 실장)씨 별세 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 &lt;부고&gt; 정윤종(제주도관광협회 실장)씨 별세 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 &lt;부고&gt; 정윤종(제주도관광협회 실장)씨 별세 송고시간2015-07-22 16:22 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 ▲ 정윤종(제주도관광협회 실장)씨 별세 = 22일 오후, 제주시 부민장례식장 4분향실, 발인 24일 오전 7시 ☎ 064-742-8861 (제주=연합뉴스) 광고 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2015/07/22 16:22 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 영상 기사 재생시간 01:38 [영상] 러시아 본토-크림반도 연결 크림대교서 대규모 폭발…통행 중단 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 80대 아버지 흉기로 찔러 살해…60대 아들 검거 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 동거녀의 13살 딸 엉덩이 깨물어 학대…50대 징역형 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 혼자 사는 70대 여성 살해하고 달아난 50대 검거 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) '90년대 강남 큰손' 조춘자 또 분양사기…징역 7년 추가 '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 스타트렉 선장 "우주여행, 장례식 같았다…가장 슬픈 경험" 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 김주형, 두 달 만에 또 PGA 정상…우즈보다 더 빨리 2승 도달(종합) KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 김하성, 3볼넷 3득점 1도루 '펄펄'…샌디에이고, NLDS 진출 칼 꺼낸 최하위 한화 이글스, 신정락 등 12명과 작별 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 지독한 미스터리에 감성 더한 '작은아씨들' 시청률 11.1%로 종영 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 尹대통령 "북핵 위협 날로 심각…한미·한미일 안보협력 대응" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 러 우크라 전역 대규모 공습…최소 11명 사망, 주요 인프라 파괴 美, 김정은 '대화 불필요' 주장에 "여전히 외교적 접근 전념" 올해 누적 무역적자 300억달러 돌파…10월 1∼10일 수출 20.2%↓ 광고 댓글 많은 뉴스 나경원 "유승민이 7주째 당대표 1등?…지지층에선 나" 댓글수 59 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 23 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>"제주도, 지자체 최초로 양적 관광을 생태관광으로 전환하나"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 뉴스 제주도, 지자체 최초로 양적 관광을 생태관광으로 전환하나 2015.07.22 12:37 '세계지속가능한관광위원회' 회원 가입 본격 추진 [헤럴드시티=지재근 기자]원희룡 제주지사는 지난 21일 집무실에서 세계지속가능한관광위원회 사무총장(랜디 더번드)과 제주의 지속가능 생태관광 활성화 방안 논의를 위한 간담회를 가졌다. 세계지속가능한관광위원회(GSTC, Global Sustainable Tourism Council)는 세계관광기구, 유엔환경계획 등의 유엔기구와 주요 국제환경단체들의 후원으로 2008년 설립된 비영리 국제기구로 관광분야 전반 이해관계자가 자발적으로 참여하는 단체이다. GSTC는 생태관광을 포함한 지속가능한 관광 전반에서의 국제 표준(호텔 및 여행사 기준, 관광지 기준)을 제공하고 인증을 실시하고 있으며 기관단위로 인증한다. 이번 간담회는 세계리더스보전포럼 국제기구 관계자와의 Round Table 회의에 참석했던 국제생태관광협회 켈리 브릭커 회장으로부터 제주도의 지속가능한 관광에 대한 기본틀로서 세계지속가능한 관광위원회와 연계하는데 필요한 정보나 지원을 제공하고 싶다는 내용과 GSTC 사무총장 한국방문시 지사님 면담 요청의 서신이 접수돼 이루어진 것이다. 간담회에서 원지사는 생태관광의 교육과 훈련등 관련된 컨퍼런스나 워크숍 참여등을 언급하며 GSTC 회원 가입 의사를 밝혔다. 또한, 원지사는 “제주는 유네스코가 지정한 자연유산이며, 세계환경수도를 꿈꾸는 지역으로서 GSTC 인증에 적합한 지역이며, 많은 관심을 가지고 있다”고 말했다. 원 지사는 “제주는 환경을 기반으로 고급관광으로 가야하고 제주만의 독특한 제주관광 모델을 만들기를 희망한다”고 말했다. 사무총장은 “GSTC의 회원은 전 세계적으로 150개의 UN산하기구, 정부기관, 호텔, 여행사 등으로 인증을 획득한 표준은 2015년 7월 현재 25개”라고 밝히며 “자치도에서도 회원가입하여 올해 9월 중국 황산에서 열리는 정기총회에 참석하기를 희망한다”고 밝혔다. 사무총장은 “GSTC 업무로 아시아에서 많은 시간을 보내고 있으니 추가적인 협의를 위한 만남은 정기총회가 열리는 9월중 가능하다”고 말하며 다음 만남을 기약했다. citynews@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>MBC NEWS MBC 뉴스 요청하신 페이지를 찾을 수 없습니다. 주소가 잘못 입력되었거나, 변경 혹은 삭제되어 요청하신 페이지를 찾을 수 없습니다. 입력하신 주소가 정확한지 다시 한번 확인해 주세요. 감사합니다. 메인 Copyrightⓒ Since 1996, MBC All rights reserved.</t>
+  </si>
+  <si>
+    <t>[부고] 정윤종(제주도관광협회 실장)씨 별세 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 [부고] 정윤종(제주도관광협회 실장)씨 별세 (서울=뉴스1) 					| 2015-07-23 07:43 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 ■정윤종(제주도관광협회 실장)씨 별세 = 22일, 제주 부민장례식장, 발인 24일 오전 7시, (064)744-4444, (064)742-8861 &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주관광공사, 전출금 의혹 해명 "제주도에 결과 보고" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:01 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주관광공사, 전출금 의혹 해명 "제주도에 결과 보고" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주관광공사, 전출금 의혹 해명 "제주도에 결과 보고" 박성우 headlinejeju@headlinejeju.co.kr 승인 2015.07.23 18:44 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사가 이번 제2회 추가경정예산안에 편성된 해외 홍보마케팅 비용 60억원의 전출금에 대해 "집행 후 그 결과에 대한 내용을 제주도에 보고할 계획"이라고밝혔다. 제주관광공사는 23일 제주도의회 예산결산특별위원회 추경안 심사 과정에서 제기된 의혹에 따른 해명자료를 냈다. 먼저 전출금이 도지사의 해외 출장비용으로 사용되는 것 아니냐는 지적에 대해 제주관광공사는 "이번에 편성된 마케팅 예산은 메르스 영향으로 침체된 제주관광 시장을 조기에 회복시키기 위해 홍보, 광고 등을 목적으로 편성된 예산"이라고 설명했다. 이어 "이번 도지사의 해외 출장은 국가별 홍보 로드쇼의 일환으로 제주관광의 조기회복을 위한 사전 홍보 활동으로, 여비는 제주관광공사로 교부된 사업비로 집행하는 것이 아니라 제주자치도 국외 업무여비로 조달하고 있다"고 말했다. 또 전출금에 대한 정산의무가 없다는 문제제기에 대해서는 "예산 편성 후 세부계획을 수립하고, 이사회의 심의.의결을 통해 사업집행을 결정한다. 사업내용의 타당성을 도와 협의 후 공사 내 회계규정에 의거해 적법하게 집행하고 있다"고 밝혔다. 그러면서 "우리 공사에서는 경상전출금의 집행 후 그 결과에 대한 내용을 제주자치도에 보고할 계획"이라고 해명했다. &lt;헤드라인제주&gt; &lt;박성우 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 설명서 한장에 '퉁' 친 60억원..."예산계획 기막혀" "60억 전출금으로 도지사 출장여비?...말도 안된다" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>[전국]제주도, 관광객 유치 서울지역 홍보 캠페인 | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 11일 띠별 운세 서울 잠원동 공원에서 50대 권총에 맞아...극단적 선택 추정 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다...... 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 [뉴스라이브] 이재명 "욱일기 다시 걸릴 수도"...국민의힘 "소... 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 제주도, 관광객 유치 서울지역 홍보 캠페인 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 尹 "핵 위협 앞에 어떤 우려가 정당화될 수 있나"... 이재명 "與, 해방 후 친일파 행태...尹, 국민께 ... 서울청장 "이준석, 지난 주말 소환 조사...무고 ... 코스피, 2% 이상 하락세...환율 1,430원 다시 돌파 국제사회, 러 강력 규탄...세계 곳곳 반러 시위 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 이재명 "與, 해방 후 친일파 행태…尹, 국민께 소명해야" 서울청장 "이준석, 지난 주말 소환 조사…무고 혐의 등 곧 결론" 민주 "여가부 확대·개편 필요"…폐지안에 공식 반대 尹 "핵 위협 앞에 정당화될 수 있나"…野 '친일국방' 공세 일축 대화 필요 없다는 김정은에 美 "여전히 외교적 해법 전념" 김기현, 安 견제…"대선 불출마 선언 기대하겠다" 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다…죄송"(전문) 서울 잠원동 공원에서 50대 권총에 맞아…극단적 선택 추정 국내 외국인 교육시설 30%, '일본해' 표기 교과서 사용 코스피, 2% 이상 하락세…환율 1,430원 다시 돌파 체중 20% 쏙…당뇨약→비만약 '대박' 터졌다 [단독] SLBM 개발 성과보상금 '0원'…국방과학연구소 떠나는 연구원들 오늘부터 개량백신 접종…신규 확진 1만 5,476명 日, 2년 7개월 만에 한국인 무비자 관광 재개…전국 여행지원도 국민연금 자발적 가입자 5년만에 첫 감소세…건보개편 영향 우려 '반값' 배추 예약 문전성시…김장철 가격 내릴까 고물가에 '구제 시장'도 타격…"물건 버리지도, 사지도 않아요" 농약 인터넷 판매 막았다더니…"점 하나 찍으면 바로 검색" 유엔, 러시아 규탄 긴급 총회…사무총장 "위기 고조 용납 못해" "6∼9개월 내로 美·세계 경제는…" JP모건의 경고 엔·달러 환율 다시 145엔대…日 정부 시장 개입 효과 제한적 다음 전국 제주도, 관광객 유치 서울지역 홍보 캠페인 2015년 07월 16일 13시 05분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 제주도와 제주도관광협회는 메르스 여파로 위축된 제주관광에 활력을 불어 넣기 위해 '메르스 극복을 위한 서울지역 길거리 홍보 행사'를 개최했습니다. 이번 행사에는 제주 관광업계와 제주도민회 등이 참여해 서울과 수도권 지역 사람들을 대상으로 차별화된 청정 제주의 이미지를 알리는 데 주력했습니다. 원희룡 제주도지사는 "제주도는 과거와 현재, 미래에도 똑같은 모습으로 모든 사람에게 사랑받는 섬으로 남아 있을 것이라며 피서철을 맞아 청정지역에서 몸과 마음을 힐링할 수 있기를 바란다"고 말했습니다. 거리 홍보행사에서는 제주의 문화를 느낄 수 있는 문화 공연 등 다양한 참여 프로그램도 진행됐습니다. 유종민 [yoojm@ytn.co.kr][저작권자(c) YTN 무단전재 및 재배포 금지] 전국 기사목록 전체보기 혼자 사는 70대 여성 둔기 살해한 50대 검거 외국인 노동자 상대로 신종 마약 '야바' 유통한 일당 검거 외국인 노동자 상대로 신종 마약 '야바' 유통한 일당 검거 [서울] 올림픽대로·강변북로 등 전광판 세척...31일까지 부분 통제 YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>제주도, 의료관광 로드맵도 없이 외국영리병원에만 '목매' &lt; 정치일반 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 의료관광 로드맵도 없이 외국영리병원에만 '목매' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 정치일반 제주도, 의료관광 로드맵도 없이 외국영리병원에만 '목매' 기자명 김영하 기자 입력 2015.07.22 17:26 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 의료관광객 유치, 고작 작년보다 270명 더?…예산 오히려 감소이상봉 의원 “고부가가치라면서 녹지병원 유치는 앞뒤 안 맞아” [제주도민일보=김영하 기자] 제주도가 외국인 의료관광객 유치보다는 외국인 영리병원 유치에만 목매달고 있다는 지적이다. 특히 의료관광의 중장기 로드맵도 없이 외국인 영리병원 유치라는 근시안적 정책을 추진하고 있다는 비판이다.제주도의회 이상봉(새정치민주연합, 노형 을) 의원이 제주도로부터 제출받은 최근 3년간 외국인 관광객 유치 현황을 보면 증가세는 두드러지지 않은 것으로 나타났다.2012년 1752명, 2013년 2952명, 지난해는 추정치로 5238명이다. 올해는 5500명을 계획하고 있다.이에 따른 예산투입도 미미한 것으로 나타났다. 2013년에는 3700만원, 지난해 3억3000만원이 외국인 의료관광을 위해 투입됐지만 올해는 고작 2930만원 밖에 배정이 안 됐다. 특히 올해의 경우 의료관광 활성화 계획도 다음 달 있을 선진사례 벤치마킹이 전부다.이 의원은 이러한 22일 열린 예산결산특별위원회 제4차 회의에서 제주도가 추진하는 의료관광 정책과 외국인 영리병원 추진이 앞뒤가 맞지 않다고 지적했다.▲ [제주도민일보] 이상봉 제주도의원이 의원은 “녹지국제병원을 설립하려는 이유는 의료관광산업 활성화를 위한 것이라고 봐도 되느냐”고 물은 뒤 “도정이 의료관광 활성화를 외치면서도 정작 외국인 환자들은 상대적으로 적은 것이 아니냐”고 따졌다.그는 또 “현행 제도 속에서 15개 선도의료기관 지정에 예산을 투입한다면 충분히 의료관광객을 유치할 수 있다”며 “오히려 해마다 예산은 줄고 계획도 협소하다”고 꼬집었다.이에 이은희 보건복지여성국장은 “선도 의료기관 지정을 통해 해외 마케팅, 국내외 팸투어를 제주관광공사와 병원이 함께 해서 해외 환자를 유치하고 있다”며 “올해 목표는 보수적으로 잡았다. 예산은 올해 본예산이 삭감된 것”이라고 해명했다.이 국장의 답변에 이 의원은 “중요하고 계획이 있다면 예산이 올라와야 하는데 그렇지 않다. 예산이 거꾸로 줄었다는 것은 수익성을 낮게 봤기 때문 아니냐”며 “그럼에도 행정은 외국 의료기관 유치에 발버둥을 치고 있다는 것은 앞뒤 말이 안 맞는 것 아니냐”고 추궁했다.이 의원은 더욱이 이 국장이 ‘우선순위에 밀렸다’는 해명에 “도정의 정책이라는 큰 흐름에서 의료관광산업이 크고 고부가가치라고 할 때 도민과 전문가를 설득해야 되지 않느냐”며 “녹지국제병원에 대해서는 구체적인 도민 공감대 형성 없이 추진하는 것은 앞뒤가 맞지 않다”고 쏘아붙였다.그는 그러면서 의료관광 활성화를 위한 글로벌 로드맵 정책이 있는지 따져 물었다.이 국장은 “5개년 계획 수립을 봤는데 세부수립 계획이 나와야 할 것으로 알고 있다. 클러스터 조성을 검토하고 있다”고 답변했다.이 의원은 “체계적인 로드맵 수립이 안 되면 즉흥적일 수밖에 없다”며 “부산은 중장기 로드맵을 만들어 2020년 외국인 의료 관광객 20만 명 돌파 등 구체적으로 목표가 나와 있다. 제주도는 외국인 영리병원 유치만 목적으로 할 것이 아니라 어떻게 외국인 의료관광객을 유치할 것인지, 공공의료를 어떻게 담보할 것인지에 대한 계획을 세우고 사업을 추진해야 한다”고 촉구했다.이에 이 국장은 “전적으로 동감한다”고 말했다. 김영하 기자 yhkim9356@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>템퍼, 제주도에서 여름 이벤트 진행…도민·관광객 위한 혜택도 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 템퍼, 제주도에서 여름 이벤트 진행…도민·관광객 위한 혜택도 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 템퍼, 제주도에서 여름 이벤트 진행…도민·관광객 위한 혜택도 기자정보, 기사등록일 입력 2015-07-17 09:02 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 [사진제공=템퍼] 아주경제 안선영 기자 = 템퍼코리아는 17일부터 10일간 롯데시티호텔제주 4층에서 제주도민과 관광객들을 대상으로 여름 할인 이벤트를 진행한다. 이번 행사는 휴가철을 맞아 제주도를 찾는 관광객들과 제주도민에게 템퍼의 인기 상품을 특별한 혜택으로 제공하기 위해 마련됐다. 행사기간 동안 템퍼의 대표 상품인 '오리지날 매트리스'와 '오리지날 브리즈 매트리스' 등 브랜드 전 제품을 특별한 가격과 혜택으로 구입할 수 있다. 템퍼 브랜드 담당자는 "최근 숙면에 대한 니즈가 많아지면서 프리미엄 폼 매트리스에 대한 관심이 높아지고 있다"며 "휴가철을 맞아 방문한 제주도에서 즐거운 휴가도 보내고 롯데시티호텔제주에서 템퍼의 상품을 특별한 혜택으로 만나보시기 바란다"고 밝혔다.관련기사까사미아, 여름 정기세일…세트 구매시 최대 100만원 할인현대리바트, '리바트 키즈' 라인업 강화 나서 #라텍스 #롯데시티호텔제주 #매트리스 #침대 #템퍼 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 69월 CPI·FOMC 의사록·어닝시즌에 "불안감 증폭" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 6세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 7숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>박원순-원희룡, 제주도 관광 홍보위해 '한마음'…오늘 명동서 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회법원ㆍ검찰사건ㆍ사고교육복지ㆍ인권노동환경날씨ㆍ재해사회일반인물여성가족경제IT/과학금융/증권산업지방국제생활/문화연예스포츠여행TVBBC 홈 &gt; 사회 &gt; 사회일반 박원순-원희룡, 제주도 관광 홍보위해 '한마음'…오늘 명동서 (서울=뉴스1) 정혜아 기자					| 2015-07-16 08:56 송고 | 2015-07-16 09:02 최종수정 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 박원순 서울시장(오른쪽)과 원희룡 제주도지사가 지난 2월10일 오전 서울시청에서 우호교류 협약을 맺은 후 기념촬영을 하고 있다. 2015.2.10 © News1 신웅수 기자박원순 서울시장과 원희룡 제주도지사가 16일 제주도 관광 홍보를 위해 힘을 모은다.이들은 이날 오전 여름 휴가철을 앞두고 서울 명동 일대에서 진행되는 '힐링의 섬! 제주 홍보 캠페인'에 참석한다. 박 시장과 원 지사는 인사말을 통해 메르스사태 때문에 타격을 입은 제주도의 관광 활성화를 위해 호소할 예정이다.기념촬영 이후에는 청정제주 화채나눔 행사가 이어진다.서울시 관계자는 "박 시장이 '제주특별자치도 주관 제주 홍보 캠페인' 현장을 찾아 중동호흡기증후군(MERS·메르스) 사태 이후 위축된 제주도내 관광시장 활성화를 위해 힘을 보탤 예정"이라고 설명했다. wit4@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도 릴레이식으로 해외관광객 유치 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 릴레이식으로 해외관광객 유치 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 릴레이식으로 해외관광객 유치 기자명 박훈석 기자 입력 2015.07.22 10:40 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 22~25일 중국․일본 찾아 활동…8월초와 9월에도 집중 실시원 지사 “언론․여행업계에 메르스 발생 않은 청정지역 강조” 제주특별자치도가 메르스(중동호흡기증후군) 여파로 침체된 지역경제 회복을 위해 22~25일 중국·일본 현지 방문을 시작으로 8월초, 9월까지 '릴레이'식으로 외국인관광객 유치에 나선다. 원희룡 지사는 21일 도청 기자실에서 회견을 열고 중국 북경과 일본 도쿄?오사카에서 유치 활동을 집중적으로 벌이겠다고 밝혔다. 원 지사는 또 "중국 방문에서는 주요 인터넷?언론사 및 여행사 대표를 만나 제주는 처음부터 현재까지 메르스가 발생하지 않은 청정지역임을 강조하겠다"고 말했다. 이와관련 원 지사는 "중국 여행사에 대해서는 단체 방문객 외에도 개인·가족단위 개별 관광객 유치를 위한 상품개발, 도내 일부 여행사의 독점 구조 해소 등에 대해 협조를 요청하겠다"고 말했다. 원 지사는 특히 "메르스 여파로 중국 크루즈 관광객들이 일본 후쿠오카를 찾고 있다"며 "이런 추세가 고착화되기 이전인 지금 중국을 찾아 마케팅을 해야 한다"고 강조했다. 원 지사는 이어 "일본 도쿄?오사카를 방문, 기업인·단체·관광업계·교포 등을 만나 일본관광객 유치 마케팅을 실시하지만 현재 냉각상태에 놓인 한·일관계 개선도 지켜봐야 한다"고 말했다. 원 지사는 "경색된 양국 관계로 일본인들이 국내를 찾지 않고 있다"며 "오는 8월15일 이전에 아베총리가 발표할 담화문의 내용에 따라 정상화되면 일본관광객 유치에 도움이 될 것"이라고 말했다. 박훈석 기자 hss9718@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>관세청, 제주도 신규 면세사업자 제주관광공사 선정 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 관세청, 제주도 신규 면세사업자 제주관광공사 선정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 관세청, 제주도 신규 면세사업자 제주관광공사 선정 기자명 최병근 기자 입력 2015.07.10 17:17 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 10일 관세청 발표...건전한 재무구조·지역상생 동반성장 등이 선정에 주효 ▲ 제주관광공사 지정면세점[제주도민일보=최병근 기자] 제주시내 추가 면세사업자로 제주관광공사가 선정됐다.이돈현 관세청 차장은 10일 오후 제주관광공사를 제주도내 신규 면세사업자로 선정했다고 밝혔다.이 외에도 수도권 지역 신규면세 사업자에 HDC신라, 한화갤러리아, SM면세점(하나투어컨소시엄) 등이 추가로 선정됐다.이번 신규 특허 입찰에는 제주관광공사와 함께 (주)엔타스의 자회사 엔타스 듀티프리, 7개 업체가 참여한 컨소시엄인 (주)제주면세점이 응찰해 피튀기는 전쟁을 벌이다 시피 했다.제주관광공사는 글로벌 마케팅 능력과 함께 기종 중문 면세점 경험 운영 능력을 홍보한 것으로 알려졌다. 이와 더불어 지역 상생 동반성장, 신용등급(AA), 자기자본비율(72.8%), 부채비율(37.3%), 이자보상배율(58%), 유동비율(397%) 등의 건전한 재무구조를 내세웠다.제주관광공사는 개점 5년 내 매출 1000억원과 순익 누계 360억원을 달성해 관광객 유치 마케팅·관광 인프라 구축·지역사회 환원·중소상권 지원 및 육성 등의 수익금 환원을 통한 지역 상생 동반성장 방안을 제시했다. 결국 사업권을 따내는 쾌거를 이룬 것이다.원희룡 제주도지사는 제주관광공사의 신규 면세사업자 선정과 관련해 “제주 공기업이 직접 하는 면세사업은 도민 숙원 사항이었다. 제주관광공사 선정은 정말 잘된 일이고, 반드시 성공할 수 있도록 제주도에서도 힘쓸 것이다”고 말하면서 “도민 여러분도 면세점 성공을 위해 성원해 주시기를 당부드린다”고 전했다.아울러 원 지사는 “도민의 숙원이었던 면세 사업자 제주관광공사 선정을 축하하며 그 동안 한마음으로 성원해주신 도민 여러분 덕이다. 면세점 성공을 위해 최선을 다할 것이며 이를 계기로 제주관광과 산업계가 도약하기를 기대한다”고 강조했다. 관련기사 제주 시내면세점 운영권 놓고 업체간 본격 경쟁 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 명동서 메르스 극복 관광 홍보행사 | SBS 뉴스 뉴스 뉴스 본문 바로가기전체 메뉴 바로가기기사 검색창 바로가기 배너 닫기 SBS뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 대메뉴 리스트 분야별 다시보기 취재파일 팟캐스트 이슈 끝까지 판다 SBS8뉴스 SDF 분야별 다시보기 취재파일 팟캐스트 이슈 멀티미디어 |비디오머그 스브스뉴스 VOICE 제주도, 명동서 메르스 극복 관광 홍보행사 라이브 제보하기 전체 메뉴 레이어 보기 SBS 뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 SBS 뉴스 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 전체 메뉴 분야별 - 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 - 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 - 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트 - 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 - 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 - 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 - 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 문명특급 기타 - 기타 메뉴 리스트 공지사항 자유게시판 SBS 뉴스 - 소셜 미디어 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 - 연관 프로그램 앱 소개 SBS D포럼 인-잇 SBS 뉴스 - 기사 검색 검색하기 SBS 뉴스 - 라이브 생방송 라이브 제보하기 전체 메뉴 레이어 닫기 검색하기 SBS 뉴스 SBS 뉴스 - 섹션 카테고리 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 SBS 뉴스 - TV 프로그램 다시보기 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오뉴스 취재파일 취재파일 정치 제주도, 명동서 메르스 극복 관광 홍보행사 제주도, 명동서 메르스 극복 관광 홍보행사 최대식 기자 최대식 기자 Seoul 이메일 보내기 작성 2015.07.16 15:26 조회 조회수 프린트기사본문프린트하기 글자 크기 크게보기 글자크기 작게보기 제주도와 관광협회는 오늘(16일) 서울 명동 일대에서 메르스 극복을 위한 제주관광 홍보행사를 열었습니다. 행사에는 원희룡 제주지사와 최갑열 제주관광공사 사장, 김영진 도 관광협회장 등이 참석했으며 참석자들은 제주 관광을 홍보하는 어깨띠를 두르고 올 여름 휴가를 제주에서 보내줄 것을 당부했습니다. 제주도는 국내 관광 관련 기자들을 대상으로 한 간담회도 진행했으며 제주와 관련된 각종 문화행사 등도 선보였습니다. 페이스북으로 공유하기 트위터로 공유하기 네이버로 공유하기 SNS 공유버튼 더보기 카카오톡으로 공유하기 밴드로 공유하기 카카오스토리로 공유하기 url 주소 복사하기 URL 복사하기 X닫기 주소가 복사되었습니다.원하는 곳에 붙여넣기(Ctrl+V)해주세요. 확인 이 기사의 덧글 보기 0 이 기사 좋아요 하기 0 최대식 기자 다른 기사 보기 &gt; 기자님 좋아요1103 관련 뉴스 추천 뉴스 이 시각 인기기사 만취 운전하다 잠든 신혜성…왜 남의 차 몰았나 보니 공효진, 뉴욕서 비공개 결혼…'10살 연하' 배우자 누구? "크러쉬가 악수 거절…뻔뻔한 인종 차별" 올라온 영상 "스트레스 받는다" 50대 남성, 비비탄 총 꺼내서 한 짓 동영상 기사 '배려석' 앉아있던 임산부, 다가온 노부부에게 들은 말 많이 본 뉴스 더 저널 리스트 더 저널 리스트더 보기 마부작침 마부작침더 보기 페이지 최상단으로 가기 닫기 SBS 뉴스 비디오머그 스브스뉴스 인잇 보러가기 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 앱 소개SBS 뉴스 모바일앱 다운받기 SBS D포럼 검색하기 SBS 뉴스 전체 메뉴 분야별 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트- 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 바로가기 시청자 참여리스트 공지사항 자유게시판 뉴스제보 고충처리인(방송피해신고) 열린TV시청자세상 윤리경영신고 시청자 참여 리스트 닫기 About SBS리스트 SBS PR SBS IR 채용정보 이용약관 SBS 방송편성규약 개인정보처리방침 시청자위원회 영상판매 웹광고 SBS 제작협찬 SBS 방송기술 SBS 문화사업 SBS Prism Tower 아트컬렉션 고객센터 사이트맵 어바웃 SBS 리스트 닫기 SBS Family리스트 TY홀딩스 SBS디지털뉴스랩 SBS 콘텐츠허브 SBSi SBS Plus SBS Sports SBS Golf SBS Biz SBS연예뉴스 SBS M KIZMOM SBS 인터내셔널 SBS A&amp;T SBS M&amp;C SBS 문화재단 서암학술장학재단 SBS 기술인협회 SBS 아나운서 스튜디오S SBS 패밀리 리스트 닫기 지역민영방송리스트 강원 민방 광주 방송 대구 방송 대전 방송 부산 방송 울산 방송 전주 방송 청주 방송 제주 방송 지역민영방송 리스트 닫기 웹광고 개인정보처리방침 SBS 정보 서울특별시 양천구 목동서로 161 대표이사 박정훈 방송관련문의 (02)2061-0006 뉴스기사제보 (02)2113-6000 찾아오시는 길 SBS 디지털뉴스랩 정보 서울특별시 양천구 목동서로 161 대표이사 박진호 고객센터 문의 (02)2113-6700 Email sbsdlab@sbs.co.kr 사업자 번호 344-87-00992 기사배열 원칙 책임자 : 정호선 기사배열 기본 원칙 ⓒ SBS &amp; SBS Digital News Lab all rights reserved.</t>
+  </si>
+  <si>
+    <t>마이데일리 About 방송 영화 음악 해외연예 문화 야구 해외야구 축구 해외축구 농구/배구 스포츠종합 허수경 "관광객이 제주도 집 벨 눌러…이효리 이해" 15-07-01 16:18 [마이데일리 = 이은지 기자] 제주살이 대표 연예인 허수경이 '소길댁' 이효리의 고충에 폭풍 공감했다. 최근 진행된 KBS 2TV '해피투게더3' 녹화는 7월 여름 스페셜 야간매점 1탄인 '전설의 MC' 매점 특집으로 이덕화, 이홍렬, 박준규, 허수경, 광희와 '스페셜 주방장' 이연복이 함께했다. 이날 허수경은 제주도 생활의 고충과 즐거움을 허심탄회하게 털어놔 관심을 모았다. 그는 최근 불거진 '소길댁' 이효리의 이사설에 대해 자신의 생각을 드러냈다. 이효리는 가수 이상순과 결혼 후 제주도 애월읍 소길리에 거주하며 '소길댁'이라는 애칭을 얻을 정도로 큰 화제를 모았다. 이에 허수경은 "이효리의 마음이 매우 이해가 간다. 나만해도 어려움이 있는데 효리 씨는 10배쯤 더 할 것"이라며 "나는 아침에 세수도 안하고 효자방석 깔고 앉아서 마당 풀을 뽑곤 한다. 그런데 자꾸 들여다봐서 신경이 쓰이더라"고 말했다. 이어 "어쩔 수 없이 담을 쳤다. 심지어 어떤 분들은 벨을 누르며 저희 집 게스트 룸에서 묵게 해달라고 부탁하기도 한다"고 덧붙여 놀라움을 자아냈다. '해피투게더3' 7월 여름 스페셜 야간매점 1탄 '전설의 MC' 매점는 오는 2일 밤 11시 10분 방송된다. [방송인 허수경. 사진 = KBS 제공] 이은지 기자 ghdpssk@mydaily.co.kr - ⓒ마이데일리(www.mydaily.co.kr). 무단전재&amp;재배포 금지 - 마이데일리 HOT 랭킹 김용건, 늦둥이 아들 근황 묻자 반응이…헉! '10개월 만에…' 김태호 PD, 1000억 가치 창출 전소미, 실물 체감 사진 보니…10등신 '깜놀' 남친에 빠져 정신 못 차리는 女, 도 넘은 발언 이다은, 성형 고백 "2세 얘기 얼마나 찔렸는지…" 마이데일리 실시간뉴스 김가연, 4세 딸 언어발달 지연에 오열 "6개월 치료비 14 19세에 엄마가 된 김가연이 4세 딸의 언어 발달 검사 후 오열한다. 11일 밤 10시 20분 방송되는 종합편성채널 MBN ‘어른들은 모르는 고딩엄빠2’(이하 ‘고딩엄빠2’) 19회에서는 김가연이 어려운 형편 속에서도 꿋꿋이 딸을 키워가는 일상을 ... 김가연, 4세 딸 언어발달 지연에 오열 "6개월 치료비 140만원…포기" (고딩엄 박혜수, BIFF가 그렇게 만만합니까?…★들 '학폭 '음주측정 거부' 신혜성, 곽도원처럼 도로에서 잠 신혜성, 음주측정 거부로 현행범 체포…차량 절도 마이데일리 핫이슈 ‘풀소유 논란’ 혜민스님 “따가운 시선에 상처, 묵묵히 봉사하며 지내고 싶다 "마약예방 모델인데"…허성태 '코카인 댄스', 국감 '마약 무혐의' 이상보, SNS로 심경 고백 "사람은 박수홍 父 주장 안 통했다…친형 구속 기소→형수도 스타 인터뷰 "너무 늦게 인정받은 송강호, 'K-콘텐츠 학과' 생겨야" 거장 진가신 감독, BI 서하준 "이유 불문 내 편 돼주는 팬들, 고맙고 속 '비밀의 집' 서하준 "난 '무식욕자', 흑화 연기 남지현 "흔치 않은 캐릭터, '작은 아씨들'로 도전 해외이슈 “오스카 여우주연상 수상하고 통제력 상실, 상품이 됐다” 32살 제니퍼 로렌스 고백[해외이슈] “카녜이 웨스트 이상행동, 정신분열 결과” 충격…잠도 거의 못자는 상태[해외이슈] 로다주 “‘아이언맨’으로 6200억 벌었다”, 박찬욱 감독 ‘동조자’선 회당 28억[해외이슈] 드웨인 존슨 “대선 출마 안해, 아빠되는게 좋아” 지지율 46%인데…[해외이슈] 회사소개 컨텐츠판매 광고문의 이용약관 개인정보취급방침 이메일무단수집거부 등록번호 : 서울 아00063 등록일 : 2005년 9월 15일    발행일자 : 2004년 11월 29일 편집인 : 이석희    청소년 보호 책임자 : 김민희 마이데일리(주) 서울시 중구 을지로 11길 15, 408호 마이데일리 (수표동, 동화빌딩)(우: 04543) 편집국대표전화 : 02-785-2935 전략기획실대표전화 : 02-785-2932</t>
+  </si>
+  <si>
+    <t>제주도관광협회 황금버스, 사업철회 등 방향 바꿔야 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도관광협회 황금버스, 사업철회 등 방향 바꿔야 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도관광협회 황금버스, 사업철회 등 방향 바꿔야 제주CBS 박정섭 기자 메일보내기 2015-07-09 15:05 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 한차당 탑승객 3명도 채 안돼...밑빠진 독에 물붓기 언제까지 제주도관광협회가 운영하는 ‘제주황금버스’의 하루 평균 이용객이 20여명에 불과해 사업을 지속할 지에 대한 적극적인 검토가 요구되고 있다. 제주도관광협회의 제주황금버스가 운행되기 시작한 건 지난해 11월.철저하게 중국관광객을 겨냥한 이 버스는 중국인들이 좋아하는 황금색으로 외부를 치장하고, 차량번호 역시 중국에서 부를 상징하는 숫자 8과 장수를 의미하는 9자로 새겼다.개별 관광객들이 선호하는 재래시장과 수목원, 제주시 지역 주요 관광지는 물론 최근엔 제주시 해안도로를 노선에 포함시켰다.하지만 탑승객 숫자를 보면 지금까지 투자한 돈이 아까울 지경이다.지난해 11월부터 지난달까지 7개월간 탑승객은 6,861명.황금버스 2대가 하루 12차례 운행하는 것을 감안하면 버스 한차례 운행당 탑승객이 3명도 채 되지 않는다. “개별관광객이 집중되는 여름이 되면 좌석이 모자라 정류장을 지나쳐야 할 정도로 탑승객이 넘칠 것”이란 제주도관광협회측의 장담은 보란듯이 빈말이 됐다.사정이 이렇다보니 제주도가 지원한 혈세 8억원이 이렇다할 효과를 내지 못하고 있어 사업 적정성에 대한 논란이 일고 있다.사업비가 협회 돈이었으면 이렇게 탑승객이 없는데도 무리하게 사업을 끌고 가지 않았을 것이란 지적도 팽배하다.황금버스 사업이 효율적으로 운영될 수 있는 방안을 조속히 강구하라는 제주도감사위원회의 지적도 유명무실한 실정이다.이 때문에 밑빠진 독에 물붓기 사업이란 지적을 벗기 위해선 사업철회 등 방향선회가 필요하다는 지적이 설득력을 얻고 있다. 더 클릭 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 "좋은 냄새난다" 병사들 상습 추행 …"징계 가혹"하다는 군 간부 [르포]'나눔이·농부' 판치는 다크웹…'마약과의 전쟁' 비웃나 승용차 6미터 절벽 추락 나무에 걸려 구조…40대 운전자 음주 혐의 입건 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 [칼럼]핵위협 공포에 휩싸인 한반도 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" 금감원 '수상한 외환거래' 이달 중 검사 마무리 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>마이데일리 About 방송 영화 음악 해외연예 문화 야구 해외야구 축구 해외축구 농구/배구 스포츠종합 '해투' 허수경 "제주도 거주, 관광객 고충 이효리 마음 이해돼" 15-07-03 00:37 [마이데일리 = 이승록 기자] 방송인 허수경이 제주도에 살고 있다며 고충을 토로했다. 2일 밤 KBS 2TV '해피투게더'는 '전설의 MC 군단' 편이 방송돼 배우 이덕화, 박준규, 개그맨 이홍렬, 방송인 허수경, 가수 광희, 이연복 셰프 등이 출연했다. "제주도에서 살고 있다. 10년 넘었다. 3일 정도 일하고 제주도에선 놀기만 한다"고 밝힌 허수경은 "지인들도 자주 온다. 양희경, 손석희도 왔다"고 전했다. 그러면서 관광객으로 인한 고충을 언급하며 "얼마 전 (제주도에 사는)이효리가 고충을 토로하고 이사를 간다는 그 마음 이해가 간다"면서 "아침에 세수를 안 하고 그대로 나온다. 텃밭과 마당이 있어서 풀 뽑는 게 일이다. 그걸 하고 있는데 대문에서 '안녕하세요' 한다. 잠옷 입고 나올 때도 있다. 신경쓰이기 시작하더라"고 밝혔다. 특히 "어떤 경우 초인종을 누르고 게스트룸에 자신이 묵어도 되느냐, 돈은 얼마든지 주겠다고 해서 곤란했던 적이 있었다"고 해 MC들을 놀라게 했다. [사진 = KBS 2TV 방송 화면 캡처] 이승록 기자 roku@mydaily.co.kr - ⓒ마이데일리(www.mydaily.co.kr). 무단전재&amp;재배포 금지 - 마이데일리 HOT 랭킹 김용건, 늦둥이 아들 근황 묻자 반응이…헉! '10개월 만에…' 김태호 PD, 1000억 가치 창출 전소미, 실물 체감 사진 보니…10등신 '깜놀' 남친에 빠져 정신 못 차리는 女, 도 넘은 발언 이다은, 성형 고백 "2세 얘기 얼마나 찔렸는지…" 마이데일리 실시간뉴스 김가연, 4세 딸 언어발달 지연에 오열 "6개월 치료비 14 19세에 엄마가 된 김가연이 4세 딸의 언어 발달 검사 후 오열한다. 11일 밤 10시 20분 방송되는 종합편성채널 MBN ‘어른들은 모르는 고딩엄빠2’(이하 ‘고딩엄빠2’) 19회에서는 김가연이 어려운 형편 속에서도 꿋꿋이 딸을 키워가는 일상을 ... 김가연, 4세 딸 언어발달 지연에 오열 "6개월 치료비 140만원…포기" (고딩엄 박혜수, BIFF가 그렇게 만만합니까?…★들 '학폭 '음주측정 거부' 신혜성, 곽도원처럼 도로에서 잠 신혜성, 음주측정 거부로 현행범 체포…차량 절도 마이데일리 핫이슈 ‘풀소유 논란’ 혜민스님 “따가운 시선에 상처, 묵묵히 봉사하며 지내고 싶다 "마약예방 모델인데"…허성태 '코카인 댄스', 국감 '마약 무혐의' 이상보, SNS로 심경 고백 "사람은 박수홍 父 주장 안 통했다…친형 구속 기소→형수도 스타 인터뷰 "너무 늦게 인정받은 송강호, 'K-콘텐츠 학과' 생겨야" 거장 진가신 감독, BI 서하준 "이유 불문 내 편 돼주는 팬들, 고맙고 속 '비밀의 집' 서하준 "난 '무식욕자', 흑화 연기 남지현 "흔치 않은 캐릭터, '작은 아씨들'로 도전 해외이슈 “오스카 여우주연상 수상하고 통제력 상실, 상품이 됐다” 32살 제니퍼 로렌스 고백[해외이슈] “카녜이 웨스트 이상행동, 정신분열 결과” 충격…잠도 거의 못자는 상태[해외이슈] 로다주 “‘아이언맨’으로 6200억 벌었다”, 박찬욱 감독 ‘동조자’선 회당 28억[해외이슈] 드웨인 존슨 “대선 출마 안해, 아빠되는게 좋아” 지지율 46%인데…[해외이슈] 회사소개 컨텐츠판매 광고문의 이용약관 개인정보취급방침 이메일무단수집거부 등록번호 : 서울 아00063 등록일 : 2005년 9월 15일    발행일자 : 2004년 11월 29일 편집인 : 이석희    청소년 보호 책임자 : 김민희 마이데일리(주) 서울시 중구 을지로 11길 15, 408호 마이데일리 (수표동, 동화빌딩)(우: 04543) 편집국대표전화 : 02-785-2935 전략기획실대표전화 : 02-785-2932</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 6월 베스트관광인에 김상노씨 선정 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 6월 베스트관광인에 김상노씨 선정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 6월 베스트관광인에 김상노씨 선정 기자명 고병수 기자 입력 2015.07.10 11:33 수정 2015.07.10 11:36 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 6월 베스트관광인에 선정된 김상노씨. (제주=국제뉴스) 고병수기자 = 제주특별자치도관광협회는 9일 제주 웰컴센터 대회의실에서 "칭찬합시다" 제주 베스트 관광인으로 태백산 본점 김상노씨를 선정하고 선정패와 함께 친절 키움 꽃화분을 전달했다고 10일 밝혔다.이번 6월의 베스트 관광인으로 선정된 태백산 본점 김상노 지배인은 지난 2012년 태백산 본점에 입사해 외식업 매장을 찾은 관광객들에게 양질의 서비스 제공을 위해 노력하고 적극적이고 긍정적인 서비스 마인드를 바탕으로 고객 만족을 최우선으로 성실히 근무해왔다는 것.이외에도 태백산 식당은 매달 지역 노인정에서 식사대접 서비스를 지원하는 등 지역사회 공헌 활동을 통해 도내 외식업의 이미지 제고 및 제주관광 외식업 발전에도 기여하고 있다. 한편 도 관광협회는 제주관광 친절서비스에 모범이 되는 베스트 관광인을 매월 선정해 수범사례를 공유하고 이를 계기로 제주관광 서비스 제공의 최일선에서 일익을 담당하는 종사자들의 친절 및 서비스 마인드를 한 단계 높여나가 '관광으로 만들어가는 희망찬 제주' 만들기에 앞장서 나가고 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 방문자수 1위 성산일출봉앞 ‘제주성산골든튤립호텔’, 관광호텔 최적입지 - 데이터넷 × 전체기사 뉴스 전체 정책/산업 통신/네트워크 모바일 보안 컴퓨팅 소프트웨어 반도체/부품 경제/교육 생활/문화 인사/동정 축사 인물·기업 전체 인터뷰 칼럼 업체탐방 인사/동정/부음 기획특집 전체 통신/네트워크 모바일 보안 엔터프라이즈 컴퓨팅 구축사례 테크가이드 전체 통신/네트워크 모바일 보안 엔터프라이즈 컴퓨팅 제품가이드 전체 통신/네트워크 모바일 보안 엔터프라이즈 컴퓨팅 디지털 라이프 데이터넷TV 전체 통신/네트워크 무선/모바일 보안 엔터프라이즈 컴퓨팅 소프트웨어/서비스 구축사례 웨비나 전체 통신/네트워크 무선/모바일 보안 엔터프라이즈 컴퓨팅 소프트웨어/서비스 정기구독신청 단행본신청 데이터넷TV 로그인 회원가입 UPDATED 2022-10-11 11:48 (화) 뉴스 정책/산업 통신/네트워크 모바일 보안 컴퓨팅 소프트웨어 반도체/부품 경제/교육 생활/문화 인사/동정 인물·기업 인터뷰 칼럼 업체탐방 인사/동정/부음 기획특집 통신/네트워크 모바일 보안 엔터프라이즈 컴퓨팅 구축사례 테크가이드 통신/네트워크 모바일 보안 엔터프라이즈 컴퓨팅 제품가이드 통신/네트워크 모바일 보안 엔터프라이즈 컴퓨팅 디지털 라이프 컨퍼런스 테크라이브러리 웨비나 통신/네트워크 무선/모바일 보안 엔터프라이즈 컴퓨팅 소프트웨어/서비스 기사검색 검색 닫기 이전 다음 제주도 방문자수 1위 성산일출봉앞 ‘제주성산골든튤립호텔’, 관광호텔 최적입지 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 뉴스 생활/문화 리스트기사 제주도 방문자수 1위 성산일출봉앞 ‘제주성산골든튤립호텔’, 관광호텔 최적입지 온라인뉴스팀 승인 2015.07.16 07:59 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 최대 연 16% 확정수익…중도금 50% 10년간 이자 지원 [생활정보] 초저금리 시대가 지속되면서 수익형 부동산이 인기를 끌고 있는 가운데 우리나라를 찾는 해외관광객이 매년 크게 증가하면서 분양형 호텔로 투자자들이 몰리고 있다. 분양형 호텔 중에서도 최근 제주도 내 관광지 중 방문자수가 가장 많은 성산일출봉 바로 앞에 들어서는 3면 바다조망의 4성급 호텔 제주성산골든튤립호텔이 눈길을 끌고 있다. 청정지역 제주도는 세계적으로 유명한 섬 관광지인 하와이, 발리, 오키나와 등도 넘지 못한 1000만명 이상의 관광객을 유치하였으며, 작년에는 1227만명이 방문할 정도로 매년 관광객수가 증가하고 있다. 특히 성산일출봉은 제주도 내에서도 관광객이 가장 많이 찾는 방문자수 1위 관광지다. 오는 2017년 1월 제주 서귀포시 성산읍 고성리에 들어서는 제주성산골든튤립호텔은 지하 2층~지상 9층 252실 규모로 객실 어디서나 바다를 바라볼 수 있는 ‘삼면 바다 조망권’을 자랑한다. 외국인 관광객 급증으로 호텔 수요 늘어 제주도는 유네스코 3관왕, 세계 7대자연경관 선정 등이 맞물리면서 국내 관광지 가운데 외국인 관광객 성장세가 가장 두드러지는 곳이다. 지난해 제주도를 방문한 전체 관광객은 1227만명에 이른다. 이처럼 제주도는 외국인 관광객은 크게 늘어나는데 비해 숙박시설은 여전히 부족한 실정이다. 해외에서 우리나라를 찾아오는 관광객은 2009년 이후 해마다 10% 이상 증가하고 있지만, 객실 증가율은 3% 대에 머물고 있다. 때문에 제주도의 호텔에 국내외 많은 투자자들이 몰리고 있다. 제주 최대 관광지 ‘성산일출봉’ 앞에 들어서 제주성산골든튤립호텔은 안전성 측면에서 호평을 받고 있다. ‘골든튤립’은 유럽 최상위 호텔 체인 ‘루브르호텔그룹’의 상위 브랜드로, 등급으로 치면 ‘UPSCALE’, 4성급에 해당한다. 루브르호텔그룹은 50개국에 2200여 개의 호텔을 갖고 있으며, 골든튤립이란 이름으로 설립된 호텔은 전 세계에 230여 개 있다. 글로벌 브랜드가 주는 신뢰와 안전성은 호텔 투숙객은 물론 투자자들에게도 매력적이다. 제주성산골든튤립호텔은 연간 300만명이 다녀가는 성산일출봉 앞에 위치해 최고의 입지 조건을 자랑한다. 드라마 ‘올인’ 촬영지로 유명한 ‘섭지코지’, 제주 주변 가장 큰 섬이자 매년 140만명이 방문하는 ‘우도’, 내국인 면세점이 자리한 ‘성산항’, 아시아 최대 수족관인 ‘아쿠아플라넷 제주’ 등도 주변에 모여 있다. 성산 지역 관광객은 앞으로도 꾸준히 늘어날 것으로 보인다. 지난달엔 제주의 네 번째 지질트레일 코스인 ‘성산·오조 지질 트레일’이 이곳에 개통됐으며, 성산일출봉 등반을 포함해 8.3㎞ 코스를 4시간 안에 완주할 수 있도록 했다. 요트 계류장(138만㎡)을 갖춘 오션마리나시티도 이 일대에 들어설 예정이다. 전 객실 테라스…계약자에 ‘황금 튤립 열쇠’ 제주성산골든튤립호텔은 전 객실에 개별 테라스를 설치하고, 야외 수영장 ‘스카이 풀’이 설치된다. 또한, 간단한 식사와 주류를 판매하는 '루프탑 바'도 함께 열리며, 고급 레스토랑, 비즈니스센터, 휘트니스센터, 세미나룸 등의 편의 시설도 호텔 내에 마련된다. 제주성산골든튤립호텔은 투자자들의 부담을 최소화하기 위해 소형 평형 위주로 객실을 구성했다. 총 252실 가운데 분양면적 35.79㎡(B타입)와 42.51㎡(A타입)가 각각 154개, 80개로 대부분을 차지한다. 정부로부터 고용창출 100대 우수기업에 선정된 ‘맥서브’가 운영을 맡아 골든튤립제주AMC에서 관리감독을 한다. 맥서브는 제2롯데월드몰과 삼성동 코엑스몰 등의 대형쇼핑몰의 운영을 맡고 있는 회사다. 호텔 계약자에게는 성수기에도 연간 10일간 무료로 숙박할 수 있는 객실 이용권과 제주 왕복 항공권 2장을 제공받는다. 제주 골프장 6곳을 가족회원 자격으로 예약할 수 있고 할인도 받을 수 있다. 계약금은 10%며 제1금융권에서 중도금 50%(4.5%)를 무이자로 대출받을 수 있고, 연 11.5%(4.5% 이자지원으로 최대 16%) 확정 수익률을 보장하며, 10년간 이자지원 혜택이 주어진다. 호수지정 신청금 100만원을 예금주 국제자산신탁(주) 계좌(BNK부산은행 113-2005-6551-06)로 입금한 뒤 호실을 지정 받은 후 방문해 계약을 체결하면 된다. 신청금은 미계약시 전액 환불된다. 제주성산골든튤립호텔(제주성산골든튤립호텔홈페이지.com)의 모델하우스는 서초동에 오픈돼 있으며 예약은 필수다. 원활한 상담과 주차안내를 위해 예약접수 후 방문상담이 가능하다. 현재 오픈 이벤트로 황금 튤립 열쇠를 증정하는 행사도 진행 중이다. ►분양문의: 1599-1731 저작권자 © 데이터넷 무단전재 및 재배포 금지 온라인뉴스팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 주요기사 GS ITM, 행사 운영 플랫폼 ‘유스트라 마이스’ 출시 GS ITM, 행사 운영 플랫폼 ‘유스트라 마이스’ 출시 지니언스, 자사 제품 보안 취약점 신고자에 포상금 지급 지니언스, 자사 제품 보안 취약점 신고자에 포상금 지급 파수 ‘랩소디’, 문서 중앙화 대체 기능 탑재 파수 ‘랩소디’, 문서 중앙화 대체 기능 탑재 자다라, KINX 클라우드허브 통해 ‘z스토리지’ 제공 자다라, KINX 클라우드허브 통해 ‘z스토리지’ 제공 멀티 클라우드 운영 필수품 ‘CMP’ 멀티 클라우드 운영 필수품 ‘CMP’ 성장하는 비즈니스, SASE로 보안·운영 해결 성장하는 비즈니스, SASE로 보안·운영 해결 인기뉴스 1 [Solution Review] 클라우드 기반 원격지원 서비스 ‘알서포트 리모트콜’ [Solution Review] 클라우드 기반 원격지원 서비스 ‘알서포트 리모트콜’ 2 카카오뱅크, 가명정보 활용 우수사례 경진대회 2년 연속 대상 수상 카카오뱅크, 가명정보 활용 우수사례 경진대회 2년 연속 대상 수상 3 SW산업협회, 경력관리시스템에 ‘AI 챗봇 서비스’ 도입 SW산업협회, 경력관리시스템에 ‘AI 챗봇 서비스’ 도입 4 와이즈넛, ‘2022 세계 한국어 한마당’서 AI 챗봇 시연 와이즈넛, ‘2022 세계 한국어 한마당’서 AI 챗봇 시연 5 한국알테어·바이브컴퍼니, 제조업 빅데이터 활용 지원 MOU 한국알테어·바이브컴퍼니, 제조업 빅데이터 활용 지원 MOU 6 SKT, 대학 캠퍼스 온실가스 감축 나서 SKT, 대학 캠퍼스 온실가스 감축 나서 7 에스티아이, 美 법인 자본금 납입 완료…CCSS 장비 본격 공급 에스티아이, 美 법인 자본금 납입 완료…CCSS 장비 본격 공급 8 핀텔, 공모가 8900원 확정...11~12일 일반 청약 핀텔, 공모가 8900원 확정...11~12일 일반 청약 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 강남구 강남대로124길 26 유성빌딩 2층 대표전화 : 070-8282-6180 팩스 : 02-3446-6170 청소년보호책임자 : 박하석 법인명 : (주)화산미디어 제호 : 데이터넷 등록번호 : 서울 아 03408 등록일 : 2014-11-04 발행일 : 2003-12-17 발행·편집인 : 정용달 데이터넷 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데이터넷. All rights reserved. mail to webmaster@datanet.co.kr 위로</t>
+  </si>
+  <si>
+    <t>올 여름휴가, 제주도 특별한 밤...야간관광 추천코스는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:01 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 올 여름휴가, 제주도 특별한 밤...야간관광 추천코스는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 연재 초점 올 여름휴가, 제주도 특별한 밤...야간관광 추천코스는? 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.07.12 09:07 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사가 추천한 '야간관광' 100% 즐기기 낮에는 볼수 없는 특별한 매력...최고의 코스는? 중동호흡기증후군 메르스(MERS)의 여파로 잠시 주춤했던 제주관광이 여름 휴가철을 맞아 다시 손님맞이로 분주하다. 올 여름에는 낮에는 볼 수 없는 제주의 특별한 매력, '야간관광'을 적극 추천한다. 보통 제주 여행객은 블로그 등 SNS 매체와 모마일 기기로 여행정보 습득이 용이해 지면서 제주방문객들은 기존의 관광코스를 따라가기 보다는 자기만의 코스를 스스로 기획하고 직접 체험하는 방식으로 여행을 즐기고 있다. 여유를 갖고 '특별함'과 '추억'을 만들고자 한다면 그 답은 야간관광이다. 야간관광은 '밤'이라는 시간적, 공간적 특성, 그 중에서도 낮에는 느낄 수 없는 새로운 풍경을 만날 수 있으며 라이프스타일 변화로 밤시간에 활동을 추구하는 사람들의 증가로 지역주민과 관광객이 함께 공존할 수 있는 문화적 측면에서 만족감을 높일 수 있다. 목관아지 야경.&lt;헤드라인제주&gt; 이러한 가운데 제주특별자치도와 제주관광공사가 올 여름 시즌을 앞두고 야간관광 활성화를 위한 콘텐츠 구축사업을 추진해 눈길을 끈다. 이의 일환으로 지난 4월 6일부터 25일까지 '제주의 특별한 밤 야간관광 코스 추천 전국공모전'을 개최했다. 공모전의 야간관광 포인트는 ▶친구들과 함께 즐겼던 제주의 밤, ▶연인과 낭만적인 데이트를 즐겼던 제주의 밤, ▶가족과 함께해 행복했던 제주의 밤, ▶나만의 제주 야간명소와 야경포인트 등이다. 이 결과 16편이 입상됐는데, 대상 수상작 추천코스로는 '서귀포 아랑조을거리→매일올레시장→이중섭거리→유토피아로(자구리 해안)'가 선정됐다. 이 코스는 제주를 방문한 연인, 친구, 가족이 함께 거닐 수 있는 서귀포 지역의 특색을 살린 야간관광 코스로서, 방문객의 이동경로가 쉽고 먹거리, 볼거리, 즐길거리가 포함돼 문화예술체험 최적의 코스라는 평가를 받았다. 이어 최우수상 수상작으로는 ▲두멩이골목→동문시장→국수문화거리→난타공연관람→별빛누리공원으로 이어지는 코스, 그리고 ▲사라봉→탑동광장→용연다리→용두암→어영마을→도두봉 코스 등 2개 코스가 선정됐다. 첫 '두멩이골목~별빛누리공원' 코스는 가족과 함게하는 특화된 코스로 추천된다. 우수작으로는 ▲'B동 301호' 인디전문 펍→'겟스페이스' 라이브클럽→'블루힐' 어쿠스틱공연 ▲서귀포 매일올레시장→칠십리공원→작가의 산책길→아랑조을거리 ▲근산오름→걸매생태공원→풍경이 있는 오솔길→천지연 폭포→로즈마린 등 3편이 선정됐다. 첫 'B동 201호~'블루힐' 공연' 코스는 '젊음과 음악을 느낄 수 있는 제주시청 공연장 투어'라는 특이한 주제로 심사위원들에게 좋은 평가를 받았다. 이 코스의 구성 배경은 제주시청 주변에는 음악인들이 상시로 공연하고 있는 펍 형태의 주점이 다수 위치하고 있고, 대중교통도 편리하여 젊은층이 즐길 수 있는 야간관광 체험 프로그램이 될 수 있다는 것이었다. 우수상으로 선정된 다른 코스인 경우도 기존 서귀포지역 야간관광 명소의 매력을 더하는 차원에서 ‘고근산 오름→걸매생태공원→풍경이 있는 오솔길→천지연폭포→로즈마린(노천카페)’와 같이 제시됐다. 제주시 서부두횟집거리.&lt;헤드라인제주&gt; 제주특별자치도에서 경관이 뛰어난 곳으로 알려진 12곳의 영주십이경(瀛洲十二景) 중 하나인 사봉낙조(沙峰落照).&lt;헤드라인제주&gt; 이번 야간관광 콘텐츠는 테마별로 구분해 실제 제주방문객이 야간에 즐길 수 있는 구체적인 체험요소를 발굴하는데 중점을 두고 있다. 예를 들면 별빛누리 공원에서 천체 관측이나 관련 야간체험 활동을 할 수 있다는 단순한 야간관광 콘텐츠가 아니라, 친구들과 함께 즐길 수 있는 제주의 야간관광 체험이나 연인과 낭만적 데이트를 즐길 수 있는 제주의 야간관광 체험 요소로 스토리텔링을 유도하고자 했다는 것이 제주관광공사 관계자의 설명이다. 또 이런 야간관광 요소가 발굴되고 활성화된다면 제주관광의 매력을 한층 높이고, 지역경제 활성화에도 기여할 것으로 기대했다. 제주관광공사는 공모전에서 발굴한 소재와 이야기를 토대로 차별화된 테마형 야간관광 코스를 ‘제주시 구도심, 신제주, 중문권, 서귀포 시내권’과 같은 4개 권역으로 구분하고 지도, 웹페이지, e-book 및 pdf 파일 등 다양한 형태로 제작해 내.외국인 관광객들이 즐길 수 있도록 홍보를 해 나갈 예정이다. 구축된 야간관광 콘텐츠를 바탕으로 올 여름시즌부터 야간 관광명소에 대한 홍보 활성화를 위한 야간명소 체험 SNS 이벤트도 실시할 계획이다. 제주자치도와 제주관광공사는 관광정책의 방향으로 야간관광 콘텐츠 구축에 더욱 박차를 가해 나간다는 방침이다. 야간관광이 주목받는 이유는 예전과 달리 밤에도 관광객들이 즐길 수 있는 체험 프로그램과 아이템을 통해 추가적인 소비지출을 유도해 지역 상권 활성화에 도움이 되고 국제 관광도시로서의 이미지 제고에도 도움이 되기 때문이다. 제주에서는 지금까지 야간관광 프로그램이 부족해 국내외 관광객의 다양한 욕구를 총족시키지 못하고 있다는 지적이 있어왔다. 용두암 야경.&lt;헤드라인제주&gt; 제주관광공사 관계자는 "그동안 제주 해안도로 등 활용할 수 있는 야간관광 자원을 별도 루트로 개발해 야간시간에도 관광객이 쉽게 접근할 수 있도록 하는 상품화 및 홍보전략이 부족했다는 평가가 있었다"며 "또한 제주만의 차별화 요소가 부족하다는 문제가 있었는데, 앞으로 제주형 야간관광 콘텐츠를 구축해 야간관광을 더욱 활성화 해나갈 계획"이라고 말했다. 이 관계자는 또 "제주방문객들이 야간시간에 체험할 수 있는 다양한 야간관광 소재를 최근 관광객들의 정보수집 채널로 각광받고 있는 SNS를 활용한 이벤트와 야간관광 전용지도 등 다양한 방법으로 홍보함으로써 야간에 관광객의 다양한 체험활동을 유도하고 지역경제 활성화에도 기여할 수 있도록 하겠다"고 말했다. &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주 야간관광 특별이벤트...매주 토요일 밤 '들썩들썩' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 문화관광해설서 신규양성 교육 &lt; 문화일반 &lt; 문화 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 문화관광해설서 신규양성 교육 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 문화일반 제주도, 문화관광해설서 신규양성 교육 기자명 이승록 기자					(leerevol@naver.com) 입력 2015.07.10 11:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도가 문환광광해설사 신규 양성교육을 실시한다.  제주도는 오는 16일부터 8월12까지 약 1개월간 총 120시간에 걸쳐 제주관광대학교에서  2016년에 새롭게 활동하게 될 문화관광해설사 신규양성교육을  실시할 계획이라고 10일 밝혔다.문화관광해설사 신규양성 교육은  문화체육관광부 신규양성 인증프로그램에 따라 문화관광해설사로서 갖춰야 할 기본소양교육과  제주의 문화와 역사․해설안내 기법은 물론 관광객 유형별 특성 및 고객서비스 접근 전략 등에 대하여 진행된다.특히 제주의 문화와 역사, 자연을 관광객들이 공감·감흥할 수 있도록 다양하게 스토리텔링화해 전달함으로써 제주관광의 가치와 매력을 높이고, 관광객들로부터 제주관광에 대한 만족도 제고 및 재방문률을 높이는데 문화관광해설사들이 기여할 수 있도록 역량 있는 문화관광 해설인력으로 육성시켜 나가게 된다.신규양성 교육과정이 끝나면 교육생들은 교육내용에 대한 이론평가와 시나리오 작성 및 관광지 현장에서 해설시연테스트를 모두 통과해야 현장실무수습대상으로 선발될 수 있으며, 현장실무수습생들은 3개월간의 수습과정을 마쳐야 2016년 현장배치 되어 활동할 수 있는 자격을 부여받을 수 있다.제주도는 지난 6월17일부터 25일까지 신규양성교육 대상자를 모집해 최종 43명의 교육대상자를 선발했고, 현재 29개소 공영관광지에서 120명의 문화관광해설사들이 활동중이다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 문화관광해설사 신규 양성교육 실시 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:01 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 문화관광해설사 신규 양성교육 실시 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 문화 제주도, 문화관광해설사 신규 양성교육 실시 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.07.10 15:34 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 16일부터 8월12까지 총 120시간에 걸쳐 문화관광해설사 신규 양성교육을 실시한다고 전했다. 제주관광대학교에서 열리는 이번 교육은 문화체육관광부 인증프로그램에 따라 추진되는 것으로, 2016년에 새롭게 활동하게 될 문화관광해설사를 양성하는 것을 목적으로 한다. 문화관광해설사로서 갖춰야 할 기본소양교육과 제주의 문화와 역사․해설안내 기법은 물론 관광객 유형별 특성 및 고객서비스 접근 전략 등에 대해 교육한다. 교육생들은 교육과정이 끝난후 이론평가와 시나리오 작성 및 관광지 현장에서 해설시연테스트를 모두 통과해야 현장실무 수습대상으로 선발될 수 있다. &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>'해투3' 허수경, “제주도 집 관광객 벨 눌러…"이효리 고충에 大 공감 로고 연예 지면보기 구독신청 기사제보 로그인 회원가입 | 유튜브 페이스북 전체보기 연예일반방송영화 검색 오피니언사설기자칼럼전문가칼럼기고 사회사회일반사건사고복지·노동보건의료환경반려동물 정치정치일반대통령·중앙행정대구·경북 행정대구·경북의회국방·북한 경제경제일반증시·금융부동산자동차취업·창업IT·모바일 스포츠스포츠일반야구축구농구·배구·핸드볼골프 문화문화일반공연·전시책운세기타 건강건강일반병원소식질환 영상영상뉴스송국건의혼술이지핏부동산공부방 위클리포유위클리포유일반여행/레저위클리영화패션·뷰티푸드칼럼 에듀포유대학·입시중·고등초등·유아대구경북교육청에듀포유일반 포토 포토뉴스 지역뉴스 경북동부 경북중부 경북북부 대구근교 대구 교육/과학교육과학 국제국제일반미국일본중국유럽 동정동정일반결혼부고알림인사 기획/특집기획/특집 연재 연재 시민기자시민기자 연예연예일반방송영화 웹툰웹툰플레이툰 독자투고 독자투고 기사제보 공지사항 x 검색버튼 '해투3' 허수경, “제주도 집 관광객 벨 눌러…"이효리 고충에 大 공감 인터넷뉴스팀 | 입력 2015-07-01 00:00 |  수정 2015-07-01 인쇄 글자작게 글자크게 카카오톡 페이스북 트위터 카카오스토리 전체 네이버밴드 네이버블로그 사진제공:KBS2 '해피투게더3' '해피투게더3'제주살이 대표 연예인’ 허수경이 ‘소길댁’ 이효리의 고충에 폭풍 공감했다. 오는 2일 방송되는 KBS 2TV ′해피투게더3′(이하 ‘해투’)는 7월 여름 스페셜 야간매점 1탄인 ‘전설의 MC’ 매점으로 꾸려진다. 7월 한 달 동안 방영될 여름 스페셜은 ‘쿡방의 원조’ 야간매점의 확장판으로 다양한 게스트들을 초대해, 음식과 관련된 에피소드들을 허심탄회하게 주고 받는 의미 있는 시간으로 마련되며, 이날 방송에서는 ‘전설의 MC 군단’ 이덕화, 이홍렬, 박준규, 허수경, 광희와 ‘스페셜 주방장’ 이연복이 출연해 찰진 입담과 감칠맛으로 목요일 밤을 수놓을 예정이다. 특히 이날은 대한민국 대표 ‘제주살이 연예인’ 허수경이 제주도 생활의 고충과 즐거움을 허심탄회하게 털어놓아 관심을 모았다. 그는 최근 불거진 ‘소길댁’ 이효리의 이사설에 대해 자신의 생각을 드러냈다. 이효리는 가수 이상순과 결혼 후 제주도 애월읍 소길리에 거주하며 ‘소길댁’이라는 애칭을 얻을 정도로 큰 화제를 모았다. 그러나 최근 ‘이효리가 극심한 사생활 침해를 못 견디고 소길리를 떠나 다른 지역으로 이사를 준비하고 있다’는 보도와 함께 이효리의 제주 생활이 또 한번 뜨거운 화제를 불러 모은 바 있다. 이에 허수경은 “이효리의 마음이 매우 이해가 간다. 나만해도 어려움이 있는데 효리씨는 한 10배쯤 더 할 것”이라고 입을 연 뒤, “나는 아침에 세수도 안하고 효자방석 깔고 앉아서 마당 풀을 뽑곤 한다. 그런데 자꾸 들여다봐서 신경이 쓰이더라. 어쩔 수 없이 담을 쳤다. 심지어 어떤 분들은 벨을 누르며 저희 집 게스트 룸에서 묵게 해달라고 부탁하기도 한다”며 나름의 고충을 털어놔 눈길을 끌었다. 이날 허수경은 ‘제주살이’의 힘든 점뿐만 아니라 즐거움 등 제주 라이프에 관한 모든 것을 허심탄회하게 털어놓았다는 후문. 이에 허수경의 진솔한 이야기가 펼쳐질 ‘해투’ 7월 여름 스페셜 야간매점 1탄 ‘전설의 MC’ 매점에 기대감이 증폭된다. KBS 2TV ‘해피투게더3’ 7월 여름 스페셜 야간매점1탄 ‘전설의 MC’ 매점은 오는 2일, 목요일 밤 11시 10분에 방송된다.인터넷뉴스팀 ynnews@yeongnam.com 영남일보(www.yeongnam.com), 무단전재 및 수집, 재배포금지 연예인기뉴스 선우은숙, 4살 연하 유영재 아나운서와 결혼...혼인신고 마쳐‘금수저' 손여은, 폭풍의 칼날 쥔 미스터리 유발 캐릭터 서영신 완벽 소화 영남일보TV 라이브리댓글 작성을 위해 JavaScript를 활성화해주세요. 기획 더보기 원자재값 급등·반도체 핵심원료 공급불안정…자원무기화·탄소중립화 시대 대응 방안은? [대구의 미래 청년기업 .9] 스포츠 기업 '디에스그룹'…은퇴 체육인 새로운 진로 개척 '인생 2모작' 돕는 사회적 기업 [인구절벽시대 우리 지역 우리가 지키자 .10] 옛 가야대 고령캠퍼스 현주소…대학촌 폐업·공실 사태로 슬럼화 시민사회는 지금 더보기 "녹조 창궐 영주댐, 환경부 불법 담수 그만" 대구 참여연대 "들러리 대구시의회 규탄" Remember! 대구 경북 디아스포라 더보기 대구 경북 아픈역사의 현장 더보기 영남일보TV 더보기 [영남일보 창간 77주년 축하인사] 유승민 국민의힘 전 의원 많이 본 뉴스 최신 주간 월간 원희룡 장관 이번엔 경산 방문...보수 텃밭 다지기 벌써 시동? 1 완전한 일상회복 기대감…야외 마스크 해제 후 첫 대구 대형 콘서트 '북적' 2 '업무수행 잘한다' 홍준표 대구시장 53.6%-이철우 경북도지사 58.2% 3 [속보] 제1036회 로또 1등 당첨번호 2, 5, 22, 32, 34, 45 4 코로나에 첫 스텝 꼬인 사자, 재계약 베테랑 부진 겹쳐 '털썩' 5 기준금리 공포에 벌벌 떤다…영끌족 "어떡하나" 멘붕 6 만원 관중 앞 '유종의 미' 거둔 삼성...2022시즌 한국프로야구 7위로 마무리 7 11일부터 '우회전 일시정지' 계도기간 종료…경찰 "신호등보다 사람 기준으로 봐야" 8 홍준표 대구시장 "시·도지사가 광역 부단체장 천거할 수 있도록 해달라" 9 추경호 경제부총리, 5개월 만에 지역구 공식 방문…군민들 '환호' 10 "나만 안 돼?"…4일 오후 2시15분쯤 '카카오톡 먹통' 1 '나는 돌아가고 싶다' 72년간 썩지 않은 참전용사 군화…칠곡 572고지에서 발견 2 대구 미분양 8천가구 넘어 '전국 최다'…거래절벽 심화 3 대구시, 정부 규제개혁 차원 '대형마트 주중 휴무' 시범실시 추진 4 오에스피·탑머티리얼 공모주 첫날 경쟁률, 에스비비테크 오전 11시 현재 경쟁률 5 오에스피·탑머티리얼 공모주 첫날 오후 1시 경쟁률은? 6 서른 하나 서울토박이가 경북 상주서 양조장 차렸다 7 유승민, 범보수 대권 적합도 '깜짝 선두'…경쟁 주자들 견제 나서 8 구미산단 외투단지 LCD용 광학필름 제조업체 화재…대응 2단계 발령 9 민선 8기 출범 100일, 대구시정에 대한 시민 평가는? 10 '리플' 7일간 47%급등 왜?…비트코인 1만9000달러 회복 1 "나만 안 돼?"…4일 오후 2시15분쯤 '카카오톡 먹통' 2 대구경북통합신공항 민간공항 활주로 길이 3.8㎞, 시간당 50회 이착륙 목표 3 날개꺾인 대구국제공항...일본.대만 노선 없어 시민들 김해로 4 '금호강 르네상스' 100리 연결 레저공간 조성…지속가능한 금호강으로 '글로벌 내륙수변도시' 대구 추진 5 대구도시철도 순환선 'AGT 방식' 검토…노선 재점검 가능성도 6 대구도시철도 순환선의 방향은?…유력 'AGT방식' 특징·향후 과제는 7 [속보] 대구 수성구·포항 남구, 조정대상지역 해제 8 [단독-포토뉴스] 국민의힘 이준석 전 대표 포항 수해 복구 봉사활동 9 대구행복페이 올해 예산도 모두 소진…연말까지 충전 안돼 10 오늘의운세 더보기 &gt; 닭띠 10월 11일 ( 음 9월 16일 )(오늘의 띠별 운세) (생년월일 운세) 영남생생 News 안동시, 노인맞춤돌봄서비스 효자 노릇 '톡톡' 시리즈 아이콘 안동 하회마을 선유줄불놀이 화려한 불꽃 매력 발산 시리즈 아이콘 대구본사 : 대구광역시 동구 동대구로 441(신천동 111번지) Tel. 053-756-8001 Fax. 053-756-9011 경북본사 : 경상북도 안동시 풍천면 수호로 59 우대빌딩 4층​ Tel. 054-857-9393 Fax. 054-857-8602 서울지사 : 서울특별시 중구 세종대로 124 프레스센터 11층 Tel. 02-738-9815 Fax. 02-738-8005 인터넷신문등록 : 대구 아00221 등록일자 : 2017.05.23 발행인 · 편집인 · 인쇄인 : 노병수 사업자등록번호 : 502-81-25414 법인명 : (주)영남일보 대표자 : 노병수 푸터로고 회사소개 개인정보취급방침 외간인쇄 구독신청 광고안내 청소년 보호정책(책임자 : 김기오, 서용덕) 언론 윤리 강령 신문윤리위 서약서 공정언론 편집규약 고충처리인 영남일보 뉴스를 만나보세요 페이스북 트위터 카카오스토리 유튜브 로그인 ㅣPC버전 Copyright ⓒ 2019 yeongnam All right reserved</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주-필리핀 직항전세기 운항 협약 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 제주-필리핀 직항전세기 운항 협약 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 제주-필리핀 직항전세기 운항 협약 기자명 고나연 기자 입력 2015.07.06 08:19 수정 2015.07.06 08:58 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연 기자 = 제주도와 제주도관광협회(회장 김영진)는 지난 2일  도내 여행업체와 공동으로 필리핀 마닐라 소재 현지 전세기 운항 전문 대형여행사인 락소트래블 본사에서 제주-마닐라 인·아웃바운드 직거래 시스템 구축 및 공동 상품개발에 대한 업무협약을 맺었다고 5일 밝혔다.이 결과 당초 5회 왕복 예정이던 전세기를 12월부터 내년 1월까지 왕복 10회로 증편하는 성과를 거뒀다락소트래블 관계자는 "제주도관광협회와 도내 관광업계와의 직접적인 업무협의를 통해 양 지역간의 직거래 모객을 강화하고 더 나아가 정기노선을 취항하고자 한다"는 의사를 밝혔다. 이번 필리핀 지역 홍보마케팅에는 전세기 운항을 위한 업무협약외에도 필리핀여행업협회등과 제주여행상품에 대한 B2B, B2C와 현지 여행업계와의 네트워크 구축 등 필리핀 관광시장의 교두보를 확보했다.도관광협회 관계자는 "메르스로 인해 중국을 비롯한 해외 인바운드 시장이 급랭된 상황에서 제주가 메르스와 사스가 발생하지 않은 청정 안전지역임을 해외 각국에 홍보를 강화하고 있다"며"또한 중국중심의 제주 인바운드 시장을 태국, 베트남, 필리핀, 말레이시아 등 동남아국가로 확대해 시장다변화를 통한 해외 인바운드 시장의 안정화에 전력을 쏟을 계획"이라고 말했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 호남 여행업계 관계자 관광설명회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:01 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 호남 여행업계 관계자 관광설명회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 연재 기관/단체 제주도관광협회, 호남 여행업계 관계자 관광설명회 개최 신동원 headlinejeju@headlinejeju.co.kr 승인 2015.07.03 11:33 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 2일 호남지역 제주여행상품 취급 전문 여행사 대표 등 여행업계 관계자를 대상으로 하는 제주관광설명회를 개최했다. 이번 관광설명회는 중동호흡기증후군 '메르스(MERS)'로 인해 어려움을 겪고 있는 제주관광시장의 활성화를 도모하기 위해 마련됐다. 설명회에서는 제주여행 수요감소 분위기 속에서도 꾸준한 영업활동 전개한 호남권 항공 및 여행업 관계자들에게 감사의 뜻을 전하고, 여름 휴가철 제주 여행상품 개발.판매 촉진을 위한 기업체 인센티브단 유치와 관련한 사업 설명이 진행됐다. 관광협회는 이 자리에서 지금까지 제주는 메르스 확진자가 한명도 발생하지 않은 청정지역임을 강조하며, 제주도에서는 공항만을 통해 입도하는 관광객이나 제주도내 주요 관광지.시설 등에서 발열감지기 가동하는 등 혹시 모를 전염병 발생 차단을 위한 예방활동에 행정과 산업계가 혼연일치해 노력하고 있다고 설명했다. 관광협회 관계자는 "그간 제주도와 관광협회에서는 메르스 사태 발생 이후에도 국내시장에서의 제주여행 수요확보를 위해 각종 관광 전문박람회 참가 홍보, 잠재수요대상 로드홍보, 코레일 상품개발자 대상 제주관광자원 답사, 제주 청정 이미지 홍보를 위한 언론인 초청 취재지원 등을 지속적으로 시행해 왔다며, 이번 여름성수기 성과가 올해 제주관광의 성과로 이어질 수 있도록 제주도내 관광업계가 전방위적인 노력을 경주해 나갈 것"이라고 말했다. 한편, 지난 6월 제주입도 관광객은 93만명으로 전년 동월대비 12.4%(잠정)의 감소세를 기록한 것으로 나타났다. &lt;헤드라인제주&gt; &lt;신동원 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 중국 크루즈 관광객 대상 메르스 청정지역 알린다! &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 중국 크루즈 관광객 대상 메르스 청정지역 알린다! 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도, 중국 크루즈 관광객 대상 메르스 청정지역 알린다! 기자명 최병근 기자 입력 2015.07.09 14:19 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 10일 오후 입도하는 크루즈 관광객에 대대적인 환영 이벤트 예정 [제주도민일보=최병근 기자] 제주도가 메르스 청정지역을 알리기 위해 중국 관광객들을 대상으로 대대적인 환영 행사를 연다.제주도는 10일 낮 1시 제주외항 8부두 크루즈전용 부두 및 크루즈 선내에서 제주항 입항 국제크루즈 환영행사를 연다고 9일 밝혔다.이날 제주로 들어오는 크루즈선은 사파이어 프린세스로 중국 상해를 출발해 제주와 일본나가사키를 들러 상해로 돌아가는 배편이다.제주도는 이날 3000여명의 관광객과 승무원을 대상으로 환영 꽃목걸이 및 기념품을 제공한다. 아울러 제주입항 환영 축하공연으로 풍물패, 사물놀이, 난타연주 등을 벌인다.한편 사파이어 프린세스는 버뮤다 국적으로 2004년 건조됐다. 여객정원은 2670명으로 총 톤수는 11만5875톤으로 길이는 290미터, 폭은 37미터에 이른다. 최병근 기자 whiteworld84@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>수익형부동산 투자 1순위! 1200만 관광객이 찾는 제주도, 제주성산골든튤립호텔 최대 연 16% 확정수익! &lt; 생활경제 &lt; 기사본문 - 아이티데일리 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 정책·산업 솔루션 클라우드 보안 하드웨어 글로벌 모바일 컨슈머 기획특집 기획특집 취재.txt 특별부록 인터뷰·사람들 인터뷰 사람들 기업 분석 기고·강좌 솔루션 리뷰·사례 컨퍼런스 로그인 회원가입 검색 주요뉴스 AI 화물운송 플랫폼 스타트업 센디, 간편식 전문 플랫폼 윙잇에 콜드체인 운송서비스 제공 안랩, 사내 ESG 환경 특강 ‘기후위기 시대의 한국경제와 한국기업’ 개최 [인사] 컴볼트, 아세안 및 한국·일본·홍콩 담당 프리세일즈 책임자에 다니엘 탠 선임 씽크포비엘, NIPA ‘AI 융합 에너지 효율화’ 1년차 사업 막바지 ‘담금질’ 곰앤컴퍼니, ‘곰믹스’ iOS 버전 공식 출시 씨앤에이아이, ‘대전형 융합신산업 창출 특구기술 실증 선도사업’ 최종 선정 한국전자통신연구원, ‘2022 자율성장 인공지능 경진대회’ 성료 모션투에이아이, 물류센터 DX 솔루션 ‘모션인사이트’ 출시 아크릴, 전립선 증식증 솔루션 및 신규 감염병 대응시스템 선봬 알서포트, ‘리모트미팅’에 3D 아바타 및 리액션 이모티콘 적용 00:00 기사제보 구독신청 닫기 뉴스 정책·산업 솔루션 클라우드 보안 하드웨어 글로벌 모바일 컨슈머 기획특집 기획특집 취재.txt 특별부록 인터뷰·사람들 인터뷰 사람들 기업 분석 솔루션 리뷰·사례 기고·강좌 본문영역 이전 기사보기 다음 기사보기 수익형부동산 투자 1순위! 1200만 관광객이 찾는 제주도, 제주성산골든튤립호텔 최대 연 16% 확정수익! 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 수익형부동산 투자 1순위! 1200만 관광객이 찾는 제주도, 제주성산골든튤립호텔 최대 연 16% 확정수익! 기자명 온라인 뉴스팀 입력 2015.07.10 00:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 국제자산신탁사의 시행으로 100% 안전한 공사비 확보(2017년2월준공) [생활정보] 기준금리가 연 1%대로 떨어지면서 수익형 부동산으로 투자자들이 몰리는 가운데 최근 외국인 관광객이 급증하고 있는 제주도의 분양형호텔이 투자처로 주목을 받고 있다.제주도는 유네스코 3관왕, 세계 7대자연경관 선정 등이 맞물리면서 국내 관광지 가운데 외국인 관광객 성장세가 가장 두드러지는 곳이다. 지난해 제주도를 방문한 전체 관광객은 1227만명으로 세계적으로 유명한 섬관광지인 하와이, 발리, 오키나와 등도 넘지 못한 1000만명 이상의 관광객을 유치했다. 또한, 2020년에는 2,000만명을 넘어설 것이라는 전망이 나오고 있으며, 현재 6대핵심프로젝트, 핵심정책 사업 및 관광개발프로젝트 등이 연이어 추진되고 있다.이처럼 외국인 관광객은 크게 늘어나는데 비해 숙박시설은 여전히 부족한 실정이다. 해외에서 우리나라를 찾아오는 관광객은 2009년 이후 해마다 10% 이상 증가하고 있지만, 객실 증가율은 3% 대에 머물고 있다. 때문에 제주도의 호텔에 국내•외 많은 투자자들이 몰리고 있다.이러한 가운데 제주도 내 관광지 중에서 방문자수 1위를 기록하고 있는 성산일출봉 바로 앞에 3면 바다조망의 4성급 호텔 제주성산골든튤립호텔이 객실을 개별등기 분양 중이다.계약금은 10%이며 제1금융권에서 중도금 50%(4.5%)를 무이자로 대출받을 수 있고, 최초 1년간 실투자금 대비 연 11.5%(4.5% 이자지원으로 최대 16%)의 확정수익률을 보장해 주며, 중도금 50%에 대해 10년간 이자지원 혜택이 주어진다.제주성산골든튤립호텔은 지하 2층~지상 9층 규모, 객실 분양면적 35.17~76.84㎡, 총 252실로 구성된다. 성산 일출봉과 섭지코지, 우도 바다를 객실의 90% 이상이 바라보도록 설계하였고, 개별 테라스를 설치하여 제주의 환상적인 바다를 보다 생생하게 느낄 수 있다. 또한, 호텔 옥상에는 야외 수영장인 스카이풀이 조성되며, 고급 레스토랑, 비즈니스센터, 피트니스센터, 세미나룸 등의 편의 시설이 갖춰진다.제주성산골든튤립호텔은 성산일출봉과 드라마 '올인' 촬영지로 유명한 '섭지코지', 제주 주변 가장 큰 섬이자 매년 140만명이 방문하는 '우도', 내국인 면세점이 자리한 '성산항', 아시아 최대 수족관인 '아쿠아플라넷 제주' 등이 주변에 모여 있어 관광호텔로는 최고의 입지조건을 자랑한다. 인근에 138만㎡의 용지에 요트 300척이 정박할 수 있는 오션마리나시티 개발도 추진되고 있어 이 일대 관광 수요는 더욱 늘어날 전망이다.'골든튤립'은 유럽 최상위 호텔 체인 '루브르호텔그룹'의 상위 브랜드로, 등급으로 치면 'UPSCALE', 4성급에 해당한다. 루브르호텔그룹은 50개국에 2200여개의 호텔을 갖고 있으며, 골든튤립이란 이름으로 설립된 호텔은 전 세계에 230여 개가 있다.제주성산골든튤립호텔은 프로젝트파이낸싱(PF) 방식으로 사업이 진행되며, 공사비용을 100% 확보한 상태에서 분양하기 때문에 안전하다. 호텔 운영은 최근 정부가 선정하는 고용창출 100대 우수기업에 선정된 맥서브가 맡고, 골든튤립제주AMC에서 관리감독을 책임진다. 맥서브는 제2롯데월드몰과 삼성동 코엑스몰 등 대형쇼핑몰 운영을 맡고 있는 믿을 수 있는 업체이다. 또한, 배우 김상중이 전속모델로 활동하며 직접 홍보에 참여했다는 점도 이 호텔의 안정성과 신뢰도에 힘을 싣고 있다.분양 관계자는 “제주도에서 분양 중인 수익형 호텔은 밸류호텔서귀포JS, 디아일랜드마리나, 제주데이즈호텔, 골든튤립제주노형호텔, 강원라마다호텔, 데이즈호텔제주, 윈스카이호텔, 웨스턴그레이스호텔, 밸류호텔, 속초라마다호텔, 기흥엠스테이호텔, 성산라마다호텔, 디아일랜드마리나 등이 있지만 수익성과 안전성을 꼼꼼히 따져 옥석을 가려야 한다.”고 조언했다.제주성산골든튤립호텔 계약자에게는 연간 10일 객실을 무료로 이용할 수 있고 성수기에도 예약이 가능하다. 관리비는 따로 없으며 다른 사람에게 양도할 수도 있다. 또한, 제주 왕복 항공권 2매와 제주 제휴골프장 준회원 대우, 아쿠아플라넷 할인권 등을 제공한다.호수지정 신청금 100만원을 예금주 국제자산신탁(주) 계좌(BNK부산은행 113-2005-6551-06)로 입금한 뒤 호실을 지정 받은 후 방문해 계약을 체결하면 된다. 신청금은 미계약시 전액 환불된다.제주성산골든튤립호텔(http://제주성산골든튤립호텔홈페이지.com/)의 모델하우스는 서초동에 오픈되어 있으며 예약은 필수이다. 원활한 상담과 주차안내를 위해 예약접수 후 방문상담이 가능하다. 현재 오픈 이벤트로 황금 튤립 열쇠를 증정하는 행사도 진행 중이다. 분양문의 : 1599-1731 온라인 뉴스팀 @ 다른기사 보기 저작권자 © 아이티데일리 무단전재 및 재배포 금지 IT DAILY 추천뉴스 [커버스토리] 클라우드 운영·관리 혁신 ‘열쇠’로 부상한 클라우드 관리 플랫폼 [기획특집] ‘창고’와 ‘호수’를 넘어서는 데이터 레이크하우스 [시장동향] AI 등 다양한 기술 적용해 스마트하게 진화하는 RPA 솔루션 [기획특집] 보안의 기본, 안티 바이러스 [초점] 상반기 가상자산 노린 랜섬웨어 기승…하반기엔 ‘관광산업’ 주의보 [시장동향] ‘차세대 방화벽’은 아직도 진화 중 [기획특집] CNAPP로 클라우드 보안 ‘모두’ 챙긴다 [이슈조명] 클라우드 저변 확대의 첨병, ‘클라우드 서비스 이용지원 사업’ 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 AI 화물운송 플랫폼 스타트업 센디, 간편식 전문 플랫폼 윙잇에 콜드체인 운송서비스 제공 모션투에이아이, 물류센터 DX 솔루션 ‘모션인사이트’ 출시 아크릴, 전립선 증식증 솔루션 및 신규 감염병 대응시스템 선봬 알서포트, ‘리모트미팅’에 3D 아바타 및 리액션 이모티콘 적용 SAP, 포스트 코로나 시대를 위한 새로운 고객경험 전략 강조 티맥스티베로 “데이터 관리자, 클라우드 환경과 상용 DBMS 선호한다” 인기뉴스 1 [글로벌] 목성, 27일 166년 중 가장 크고 밝게 빛난다…사진작가들에 희소식 2 [전문가 강좌] AI 모델링에서의 하이퍼매개변수 최적화 3 [좌담회] “CSAP 등급제 개편, 민간 클라우드 활성화에 역점 둬야” 4 [초점] 주목받는 ‘한국PMO협회’ 5 [글로벌] 구글 신제품 스마트폰 픽셀7·픽셀워치 발표 이벤트 10월 7일 개최 6 [글로벌] 아이폰15 정보 벌써 나돈다…“‘울트라’ 모델, 카메라 대폭 강화” 7 주호시스템즈, KT클라우드 마켓에 통합로그솔루션 ‘로그세이버’ 입점 8 스프링클라우드-만나씨이에이, 자율주행 결합한 스마트팜 서비스 개발 위해 ‘맞손’ 9 [글로벌] 옵티머스 프라임 등장하나…테슬라 AI데이 선보일 ‘인간형 로봇’ 주목 10 솔트웨어, IP 투자 플랫폼 운영사 ‘아이피샵’ AWS 클라우드 도입 지원 기획특집 [LCNC①] 만성적 개발자 부족…로우코드‧노코드로 해결한다 [시장동향] 다양한 기기 지원하면서 꾸준히 성장하는 ‘UI/UX’ 시장 [CSAP 논의점 ③] 유명무실한 민간 클라우드 우선 활용 정책, 신규 시스템 기준 필요 [CSAP 논의점 ②] ‘망’ 재정의 요구…‘중’ 등급 확대해야 SaaS 기업, CSP 성장 가능 최신뉴스 AI 화물운송 플랫폼 스타트업 센디, 간편식 전문 플랫폼 윙잇에 콜드체인 운송서비스 제공 안랩, 사내 ESG 환경 특강 ‘기후위기 시대의 한국경제와 한국기업’ 개최 [인사] 컴볼트, 아세안 및 한국·일본·홍콩 담당 프리세일즈 책임자에 다니엘 탠 선임 씽크포비엘, NIPA ‘AI 융합 에너지 효율화’ 1년차 사업 막바지 ‘담금질’ 곰앤컴퍼니, ‘곰믹스’ iOS 버전 공식 출시 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 서비스 전체보기 매체정보 서울특별시 금천구 가산디지털1로 181 (가산 더블유센터) 1713~1715호 대표전화 : 02-2039-6160 팩스 : 02-2039-6163 청소년보호책임자 : 김선오 법인명 : (주)아이티엠지 제호 : 아이티데일리 등록번호 : 서울 아 00418 등록일 : 2007-08 발행일 : 발행인 : 김용석 편집인 : 김선오 아이티데일리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 아이티데일리. All rights reserved. mail to info@itdaily.kr 위로 전체메뉴 전체기사 뉴스 전체 정책·산업 솔루션 클라우드 보안 하드웨어 글로벌 모바일 컨슈머 기획특집 전체 기획특집 취재.txt 특별부록 인터뷰·사람들 전체 인터뷰 사람들 기업 분석 솔루션 리뷰·사례 기고·강좌 생활경제 전체 라이프 헬스 경제 뷰티 교육 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 웰니스 관광콘텐츠 개발에 나서 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 웰니스 관광콘텐츠 개발에 나서 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 웰니스 관광콘텐츠 개발에 나서 기자명 김영하 기자 입력 2015.07.02 14:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [제주도민일보=김영하 기자] 제주도관광협회는 제주-강원지역 간 연계협력을 기반으로 한 ‘MICARE산업(목적형 웰니스관광) 생태계 육성지원사업‘을 이달부터 본격 추진한다고 2일 밝혔다.산업통상자원부가 경제협력권산업 육성사업의 일환으로 추진하는 지역협력형 비R&amp;D 사업 중 하나인 이 사업은 국내시장을 선도할 수 있는 MICARE산업 생태계를 육성하기 위한 사업이다.전 세계적으로 명상·요가·트레킹·스파·음식 등을 통한 심신의 치유와 자연과의 상생을 핵심 콘텐츠로 한 웰니스 관광(Wellness Tourism)이 관광분야의 새로운 고부가가치 트렌드로 대두되고 있다. 또 웰니스를 목적으로 한 관광객의 비중 또한 점진적으로 증가하는 추세다.글로벌 통계기준 2013년 웰니스관광객은 5억8600만명, 관광수입은 494조 달러로 2012년에 비해 12% 증가했다.기존에 관광산업의 인프라 구축 및 조성을 위한 개발 등으로 인해 자연환경의 훼손돼 왔다. 그러나 앞으로는 제주 자연환경의 포용한계를 고려한 지속가능한 제주 관광산업의 미래전략 수립의 필요성이 대두되고 있다.이에 도관광협회는 주관기관인 제주한라병원과 참여기관인 춘천바이오산업진흥원, 제주관광문화산업진흥원, (주)가교로 구성된 컨소시엄을 통해 휴양·오락 등 흥미요소(Fun)에 목적을 둔 기존 제주관광에 ‘웰니스’의 콘셉트를 융합한 글로벌 경쟁력을 갖춘 유망제품(의‧식‧주‧심 분야)을 개발·홍보할 계획이다.이를 통해 관광의 다각화와 ‘Wellness Island Jeju’, ‘LOHAS의 섬 제주’ 등 자연친화적인 관광지로서 이미지 브랜딩을 통해 지속가능한 관광으로 진입하기 위한 토대를 마련키로 했다.관광협회는 앞으로 목적형 웰니스 관광객을 대상으로 한 상품 개발지원 및 확산 지원, 타켓 맞춤형 인증(종교-Halal인증, 환경친화형-EMAS인증,LOHAS인증 등) 획득을 위한 기술지원, 현장교육 중심형 지역특성화 전문인력 양성 등의 역량강화 사업을 진행할 계획이다.휴양형 MICARE(MICE+Healthcare)산업은 휴양이 내포하는 관광의 미래지향성을 기반으로 MICE산업과 Healthcare산업이 전통적 정의를 전체적으로 포괄하는 산업이다. 제주의 MICE산업과 강원의 Healthcare산업이 기 추진된 자체 산업의 발전 기반을 바탕으로 중복적 투자 요소를 방지하고 상호 보완적으로 각 권역 발전을 지원할 수 있도록 추진하는 산업을 말한다. 김영하 기자 yhkim9356@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>허수경, "이효리 이해, 제주도 집 찾는 관광객 신경 쓰여" (해피투게더) 즐겨찾기 추가 글로벌 티브이데일리 중국 SINA.com QQ.com hi好酷.com 홍콩 Yahoo HK Koreastardaily MSN HK 3HK Gameone 대만 Yahoo TW MSN TW 베트남 The gioi dienanh 라오스 Vientiane Times 태국 PPTV 홈 로그인 회원가입 기사제보 방송 가요 예능 영화 포토 영상뉴스 해외연예 인터뷰 연예칼럼 문화/사회 만화 허수경, "이효리 이해, 제주도 집 찾는 관광객 신경 쓰여" (해피투게더)2015. 07.03(금) 08:25 허수경 이효리 허수경 해피투게더 허수경 제주도 [티브이데일리 양소영 기자] 방송인 허수경이 가수 이효리의 고충을 이해한다고 밝혔다. 2일 밤 방송된 KBS2 '해피투게더3'에서는 7월 여름 스페셜 야간매점 1탄으로 '전설의 MC' 매점 편이 전파를 탔다. 게스트로는 이덕화 이홍렬 박준규 허수경 광희 이연복이 출연했다. 이날 허수경은 "제주도에 산지 10년이 넘었다. (서울에) 3일 정도 와서 일을 싹하고 집에 간다. 내가 서울에 가면 딸이 제주도에 혼자 있다. 요즘엔 라디오 생방송을 해서 엄마랑 떨어져 있는 시간이 4일간 정도다"고 말했다. '해피투게더' 스튜디오 한 편에는 허수경의 딸 허별도 함께 했다. 이에 출연진들은 '해피선데이-슈퍼맨이 돌아왔다'에 출연한 적이 있는 허수경의 딸에게 "서언이가 좋아하는 딸 아니냐"며 반가워했다. 또한 허수경은 제주도 집을 방문한 지인을 묻는 질문에 "양희경은 자주 오고 손석희도 가끔 온다"고 밝혔다. 이어 허수경은 "얼마 전에 이효리 씨가 고충을 토로하고 그런 게 이해된다. 아침에 세수를 안 하고 일어나면 밖으로 나와서 텃밭을 정리한다. 풀 뽑고 있는데 사람들이 인사를 한다. 옷도 그렇고 신경이 쓰이더라"고 말했다. 허수경은 "가끔 어떤 사람들은 지인들을 위한 게스트룸에 묵어도 되냐고 한다. 그래서 곤란한 경우가 있다"며 고충을 토로해 눈길을 모았다. [티브이데일리 양소영 기자 news@tvdaily.co.kr / 사진=KBS2 방송화면 캡처] 기사제보 news@tvdaily.co.kr        양소영 기자의 다른 기사 보기 키워드 : 허수경 이효리 선우은숙♥유영재, 깜짝 재혼 발표 축하 물결 [이슈&amp;톡]양조위, 40년 연기 인생이 곧 '화양연화' [27th BIFF 종합] 오은영 매직 없이, ‘우아달 리턴즈’ 호기로운 결단… '공조2' 장기 흥행vs'정직한 후보2' 2일 천하… 침묵 깬 YG…제니·뷔 '사생활 유포' 뒤늦은 진화… [단독] 아이유, 해외 일정 중 확진자와 밀접접촉→… '마약 혐의' 돈 스파이크, 사실상 연예계 퇴출 [… 선우은숙, 유영재 아나운서와 재혼 "혼인… 박시연, 음주운전 후 첫 공식석상…손담비… '작은 아씨들' 결말, 김고은 300억 … '남궁민♥' 진아름, 결혼 소감 "예쁘게… '작은 아씨들' 엄지원, 장광 살해 "넌… '태풍의 신부' 손창민, 박하나 父 살해… '동상이몽2' 오상진, 빼다박은 딸 최초… [TD포토+] '2022FW 잇템' …[TD포토+] 전효성 '완벽한 볼륨감… 톰 크루즈, 이번엔 우주로 가나 [TD할리웃] 안젤리나 졸리, 피트 아동 폭행 주장 “… 윌 스미스 '해방'으로 복귀 확정, 폭행… '폭행 논란' 윌 스미스, '해방' 통해… 아나운서 ‘임현주’의 참된 외모 사용법 [윤지혜의 대중탐구영역] 김혜수ㆍ장근석, 가족경영 폐해를 대하는 … '너를 만났다' 다큐의 존재 목적, 저희… 백종원, 다 큰 어른에게도 혼내 줄 사람… 회사소개 회원약관 개인정보취급방침 청소년보호정책 고객센터 제휴문의 광고문의 인터넷신문윤리강령 - 바로가기 - 스포츠투데이 더셀럽 명칭 : (주)티브이데일리등록번호 : 서울 아 00742등록연월일 : 2009.1.21제호 : 티브이데일리발행/편집인 : 김범열 발행소 : (07803) 서울특별시 강서구 마곡중앙6로 66, B동 1204호발행연월일 : 2009.1.28청소년보호책임자 : 이선민 TEL : 02)3443-8246~7FAX : 02)3443-8248Copyright(c) TV Daily. All rights reserved.</t>
+  </si>
+  <si>
+    <t>[부고] 정윤종(제주도관광협회 실장)씨 별세 닫기 Search #글로벌 #시승기 #애플 #삼성전자 #유럽 #카드뉴스 닫기 전체기사 글로벌비즈 종합 금융 증권 산업 ICT 부동산·공기업 유통경제 ESG경영 오피니언 GETV 전체기사 글로벌비즈 미국·북미 중국 일본 아시아·호주 유럽 중남미·중동·아프리카 국제 글로벌CEO 종합 정치 경제 사회 전국 인물동정·인사·부고 기타 금융 은행 보험 카드 제2금융 금융일반 증권 해외증시 시황·전망 해외증시 특징주 해외증시 일반 국내증시 시황·전망 국내증시 특징주 국내증시 일반 암호화폐 산업 경제단체 전기·전자 자동차 중화학 항공·조선 반도체·디스플레이 철강 산업일반 ICT 통신·뉴미디어 IT일반 과학일반 게임 부동산·공기업 건설·부동산 분양 공기업 부동산일반 유통경제 식음료 패션∙뷰티 소비자 제약·바이오 유통일반 생활일반 ESG경영 기업지배구조 ESG일반 오피니언 기고 데스크칼럼 기자수첩 GETV 시승기 증권 메뉴 [부고] 정윤종(제주도관광협회 실장)씨 별세 글로벌모터즈 온타임즈 PDF지면보기 English 中文 종합 facebook twitter youtube 검색 메뉴 정치 경제 사회 전국 인물동정·인사·부고 기타 공유 0 [부고] 정윤종(제주도관광협회 실장)씨 별세 유창희 기자 입력2015-07-22 17:01 ▲ 정윤종(제주도관광협회 실장)씨 별세 = 22일 오후, 제주시 부민장례식장 4분향실, 발인 24일 오전 7시 ☎ 064-742-8861유창희 기자 changhee@ 필리핀 뉴스 기본정보 무역 투자 비즈니스 여행 한-필리핀 FTA, 협상 개시 2년여 만에 타결 선언 2021.11.02 필리핀의 3대 보험제도 2021.10.21 필리핀 건설면허 종류와 발급 요건 2021.09.14 필리핀 외국인 취업허가증(AEP) 발급 요건 강화 2021.08.27 필리핀 다바오 시 인프라(항구·공항) 개발정보 2021.08.10 헤드라인 뉴스 사우디 원유 감산에 미‧EU "잊지 않겠다" 분노 시진핑, 덩샤오핑의 실용·탈이념 시대 종식 현대차, 인도서 4년만에 최고 순이익 달성 글로벌비즈 국제민간항공기구, '2050년까지 탄소중립' 합의...중국·인도, 기한 연장 요구 티센크루프, 녹색수소 환원철 시스템 구축에 2조7000억원 투자 G-Ship Story 대선조선, 수은으로부터 RG 발급 받았다…6500만달러 상당 대우조선해양, 건조 중인 LNG선 화물창 실시간 관리한다 현대글로비스, 물류부터 해운까지 新사업 착착...지배구조 개편 신호탄 G-Military 인니 정부, 프랑스 라팔제치고 KF-21 개발에 매달리나 美육군의 업그레이드된 M1A2 SEPv4 에이브람스 탱크 프로토타입 '유출' 낙탄사고 일으킨 현무 미사일…K-국방 신뢰성 해칠까 우려 미래의 한류 스타 내로라하는 국내외 유명 안무가 총출동…춤의 진수 선보인다 양소영, 저돌적 추진력과 가공할 연습량 소지한 연기자…연기는 난생처럼 '잘하고 싶은 일' 봉다룬, 판소리·현대무용 연기에 심취…항상 목말라하는 공연계의 '히딩크' 오늘의 주요뉴스 [초점] ﻿美, ﻿中 반도체 수출 통제 글로벌 반도체 기업 피해 얼... 테슬라, 9월 중 사상최대 출하에도 수요 우려 커져 JP모건 CEO, 미국·세계경제 6~9개월 후 경기침체 경고 시카고 연은 총재 “정책금리 내년 4.5%이상 상승” 삼성전자, 인도서 갤럭시버즈2프로 펌웨어업데이트 이후 소음문제... Hot 포토 김보라, '핀란드 파파' 여주인공 발탁…김우석과 호흡 블랙핑크 케이팝 최초 '빌보드 200' 메인 1위 석권 아이유·수지, 수해복구 성금 1억원씩 기부 우주소녀 '엠카' 출격…'라스트 시퀀스' 무대 많이 본 기사 1 한글날 비 주의보 기상청 전국 일기예보 2 '생방송투데이' 먹킷리스트 김치삼겹 갈레트, 맛있GO 6500원 14첩반상 3 2TV 저녁 생생정보 고수의부엌 갈비곱창구이 4 포항에 이는 영화 바람, 문신구 감독의 '2퍼센트' 5 이준석, 탈당은 없다…재기 전략은 '고심' 글로벌 슈퍼리치 제프 베조스 전처 매켄지 스콧, 756억원 상당 비벌리힐스 저택 자선단체에 기부 할리우드 스타 소피아 베르가라, 비벌리힐스 맨션 257억원에 매각 예정 프로골퍼 비제이 싱, 300억 원 상당 하와이 저택 매각 예정 카메론 디아즈x벤지 메이든 커플, 몬테시토 맨션 1267만 달러에 구입 리얼시승기 아이오닉6 "수려한 디자인에 잘 다듬어진 주행성능 갖춰" 기아 셀토스 부분변경 "이미 완벽한데, 더 좋아졌네?" 벤츠 C200 4매틱 "젊어진 S클래스" 포르쉐 마칸 GTS "강렬한 존재감에 도로위 시선 집중" 종합 실시간 뉴스 49분전 개막 첫날 6만 명 방문… 장성 황룡강 가을꽃축제 '대박 예감' 함평군, ‘콩 융복합단지 조성사업’ 공모 선정 나주시, 영산강에서 ‘한국 철인 3종경기’ 첫 개최 1시간전 외교부 조정기획관 황소진 등 안산시, 제3회 안산 김홍도 축제 4년 만에 시민 찾아간다 이숙자 서울시의원, 내방역 8번 출입구 에스컬레이터 2대 신설 추진 2시간전 새마을지도자 안산시협의회, 사랑의 헌혈 생명나눔 캠페인 안산시, 국가안전대진단 추진상황 중간보고회 개최 글로벌이코노믹 패밀리 사이트 온타임즈 글로벌모터즈 신문사소개 윤리강령 기사제보 광고문의 이메일무단수집거부 개인정보취급방침 청소년보호 및 고충처리인 불편신고 (우)04004 서울특별시 마포구 월드컵로62 서교동 한림빌딩 2층 (주)그린미디어 | 제호 : 글로벌이코노믹 | 대표전화 : 02-323-7474 등록번호 : 서울 아 02232 | 등록·발행일자 : 2012년 8월 9일 | 발행·편집인 : 박형준 | 편집국장 : 진성기 | 청소년보호책임자 : 이인수 글로벌이코노믹을 통해 제공되는 모든 콘텐츠(기사 및 사진)를 무단 사용·복사·배포시 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright © 2011 글로벌이코노믹. All rights reserved. mail to webmaster@g-enews.com</t>
   </si>
 </sst>
 </file>
@@ -437,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,9 +650,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -469,9 +658,6 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -481,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +689,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -513,9 +699,6 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -525,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -546,9 +729,6 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
@@ -558,7 +738,414 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
